--- a/res/10000078.xlsx
+++ b/res/10000078.xlsx
@@ -1,34 +1,959 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="296">
+  <si>
+    <t>알하이탐</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>5*</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Dendro Bonus</t>
+  </si>
+  <si>
+    <t>28.8%</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>Promote Costs</t>
+  </si>
+  <si>
+    <t>자라나는 비취 가루 x1, 모래 번데기 x3, 빛바랜 붉은 비단 x3</t>
+  </si>
+  <si>
+    <t>자라나는 비취 조각 x3, 창색의 날개꽃 x2, 모래 번데기 x10, 빛바랜 붉은 비단 x15</t>
+  </si>
+  <si>
+    <t>자라나는 비취 조각 x6, 창색의 날개꽃 x4, 모래 번데기 x20, 장식된 붉은 비단 x12</t>
+  </si>
+  <si>
+    <t>자라나는 비취 덩이 x3, 창색의 날개꽃 x8, 모래 번데기 x30, 장식된 붉은 비단 x18</t>
+  </si>
+  <si>
+    <t>자라나는 비취 덩이 x6, 창색의 날개꽃 x12, 모래 번데기 x45, 금자수 붉은 비단 x12</t>
+  </si>
+  <si>
+    <t>자라나는 비취 x6, 창색의 날개꽃 x20, 모래 번데기 x60, 금자수 붉은 비단 x24</t>
+  </si>
+  <si>
+    <t>Skill Upgrade Costs</t>
+  </si>
+  <si>
+    <t>Lv.2</t>
+  </si>
+  <si>
+    <t>「창의」의 가르침 x3, 빛바랜 붉은 비단 x6</t>
+  </si>
+  <si>
+    <t>Lv.3</t>
+  </si>
+  <si>
+    <t>「창의」의 인도 x2, 장식된 붉은 비단 x3</t>
+  </si>
+  <si>
+    <t>Lv.4</t>
+  </si>
+  <si>
+    <t>「창의」의 인도 x4, 장식된 붉은 비단 x4</t>
+  </si>
+  <si>
+    <t>Lv.5</t>
+  </si>
+  <si>
+    <t>「창의」의 인도 x6, 장식된 붉은 비단 x6</t>
+  </si>
+  <si>
+    <t>Lv.6</t>
+  </si>
+  <si>
+    <t>「창의」의 인도 x9, 장식된 붉은 비단 x9</t>
+  </si>
+  <si>
+    <t>Lv.7</t>
+  </si>
+  <si>
+    <t>「창의」의 철학 x4, 금자수 붉은 비단 x4, 무념의 거울 x1</t>
+  </si>
+  <si>
+    <t>Lv.8</t>
+  </si>
+  <si>
+    <t>「창의」의 철학 x6, 금자수 붉은 비단 x6, 무념의 거울 x1</t>
+  </si>
+  <si>
+    <t>Lv.9</t>
+  </si>
+  <si>
+    <t>「창의」의 철학 x12, 금자수 붉은 비단 x9, 무념의 거울 x2</t>
+  </si>
+  <si>
+    <t>Lv.10</t>
+  </si>
+  <si>
+    <t>「창의」의 철학 x16, 금자수 붉은 비단 x12, 무념의 거울 x2, 지식의 왕관 x1</t>
+  </si>
+  <si>
+    <t>Constellations</t>
+  </si>
+  <si>
+    <t>Real Value</t>
+  </si>
+  <si>
+    <t>직관</t>
+  </si>
+  <si>
+    <t>광막 공격이 적에게 명중하면 보편성·이데아 모사의 재사용 대기 시간이 1초 감소한다. 해당 효과는 1초마다 최대 1회 발동된다</t>
+  </si>
+  <si>
+    <t>[1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>논증</t>
+  </si>
+  <si>
+    <t>알하이탐이 빛조각을 생성했을 때, 생성된 빛조각 1개당 원소 마스터리가 40pt 증가한다, 지속 시간: 8초. 해당 효과는 최대 4스택까지 중첩되고, 각 스택의 지속 시간은 독립적으로 계산된다. 빛조각이 최대 수량에 도달해도 해당 효과는 발동된다</t>
+  </si>
+  <si>
+    <t>[40.0, 8.0, 4.0]</t>
+  </si>
+  <si>
+    <t>반례</t>
+  </si>
+  <si>
+    <t>보편성·정밀 모사의 스킬 레벨+3. 최대 Lv.15까지 상승</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>해명</t>
+  </si>
+  <si>
+    <t>특정성·현상의 족쇄 발동 시 방금 소모 또는 생성된 집광 렌즈의 수에 따라 다음 효과가 발동된다.
+·소모된 집광 렌즈 1개당 자신과 다른 파티원의 원소 마스터리가 30 증가한다. 지속 시간: 15초
+·생성된 집광 렌즈 1개당 알하이탐이 10%의 풀 원소 피해 보너스를 획득한다. 지속 시간: 15초</t>
+  </si>
+  <si>
+    <t>[30.0, 15.0, 0.10000000149011612, 15.0]</t>
+  </si>
+  <si>
+    <t>총명함</t>
+  </si>
+  <si>
+    <t>특정성·현상의 족쇄의 스킬 레벨+3. 최대 Lv.15까지 상승</t>
+  </si>
+  <si>
+    <t>정리</t>
+  </si>
+  <si>
+    <t>알하이탐이 집광 렌즈를 생성했을 때 렌즈의 수가 한도에 도달했을 경우, 한도를 초과한 렌즈 1개당 알하이탐의 치명타 확률이 10%, 치명타 피해가 70% 증가한다. 지속 시간: 6초
+지속 시간 동안 해당 효과가 다시 발동할 경우 지속 시간이 6초 증가한다</t>
+  </si>
+  <si>
+    <t>[0.10000000149011612, 0.699999988079071, 6.0]</t>
+  </si>
+  <si>
+    <t>Passives</t>
+  </si>
+  <si>
+    <t>4단 인과 논증</t>
+  </si>
+  <si>
+    <t>알하이탐의 강공격 및 낙하 공격이 적에게 적중하면 집광 렌즈 1개를 생성한다. 해당 효과는 12초마다 최대 1회 발동한다</t>
+  </si>
+  <si>
+    <t>[12.0]</t>
+  </si>
+  <si>
+    <t>밝혀진 비밀</t>
+  </si>
+  <si>
+    <t>알하이탐의 원소 마스터리 1pt당 광선 피해와 특정성·현상의 족쇄가 가하는 피해가 0.1% 증가한다.
+해당 방식으로 광선과 특정성·현상의 족쇄의 피해는 최대 100%까지 증가한다</t>
+  </si>
+  <si>
+    <t>[0.0012000000569969416, 1.0]</t>
+  </si>
+  <si>
+    <t>라이프 특성</t>
+  </si>
+  <si>
+    <t>무기 돌파 소재를 합성 시 10%의 확률로 생산량의 2배를 획득한다</t>
+  </si>
+  <si>
+    <t>일반 공격·인명의 검</t>
+  </si>
+  <si>
+    <t>일반 공격
+검으로 최대 5번 공격한다.
+강공격
+일정 스태미나를 소모해 순간적으로 전방을 향해 검을 2번 휘두른다.
+낙하 공격
+공중에서 땅을 내려찍어 경로상의 적을 공격하고, 착지 시 범위 피해를 준다</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Lv.1</t>
+  </si>
+  <si>
+    <t>Lv.11</t>
+  </si>
+  <si>
+    <t>Lv.12</t>
+  </si>
+  <si>
+    <t>Lv.13</t>
+  </si>
+  <si>
+    <t>Lv.14</t>
+  </si>
+  <si>
+    <t>Lv.15</t>
+  </si>
+  <si>
+    <t>1단 공격 피해</t>
+  </si>
+  <si>
+    <t>56.0%</t>
+  </si>
+  <si>
+    <t>60.6%</t>
+  </si>
+  <si>
+    <t>65.2%</t>
+  </si>
+  <si>
+    <t>71.7%</t>
+  </si>
+  <si>
+    <t>76.2%</t>
+  </si>
+  <si>
+    <t>81.4%</t>
+  </si>
+  <si>
+    <t>88.6%</t>
+  </si>
+  <si>
+    <t>95.8%</t>
+  </si>
+  <si>
+    <t>103.0%</t>
+  </si>
+  <si>
+    <t>110.8%</t>
+  </si>
+  <si>
+    <t>118.6%</t>
+  </si>
+  <si>
+    <t>126.4%</t>
+  </si>
+  <si>
+    <t>134.2%</t>
+  </si>
+  <si>
+    <t>142.0%</t>
+  </si>
+  <si>
+    <t>149.9%</t>
+  </si>
+  <si>
+    <t>2단 공격 피해</t>
+  </si>
+  <si>
+    <t>56.8%</t>
+  </si>
+  <si>
+    <t>61.5%</t>
+  </si>
+  <si>
+    <t>66.1%</t>
+  </si>
+  <si>
+    <t>72.7%</t>
+  </si>
+  <si>
+    <t>77.3%</t>
+  </si>
+  <si>
+    <t>82.6%</t>
+  </si>
+  <si>
+    <t>89.9%</t>
+  </si>
+  <si>
+    <t>97.2%</t>
+  </si>
+  <si>
+    <t>104.4%</t>
+  </si>
+  <si>
+    <t>112.4%</t>
+  </si>
+  <si>
+    <t>120.3%</t>
+  </si>
+  <si>
+    <t>128.2%</t>
+  </si>
+  <si>
+    <t>136.2%</t>
+  </si>
+  <si>
+    <t>144.1%</t>
+  </si>
+  <si>
+    <t>152.0%</t>
+  </si>
+  <si>
+    <t>3단 공격 피해</t>
+  </si>
+  <si>
+    <t>37.2%+37.2%</t>
+  </si>
+  <si>
+    <t>40.3%+40.3%</t>
+  </si>
+  <si>
+    <t>43.3%+43.3%</t>
+  </si>
+  <si>
+    <t>47.6%+47.6%</t>
+  </si>
+  <si>
+    <t>50.7%+50.7%</t>
+  </si>
+  <si>
+    <t>54.1%+54.1%</t>
+  </si>
+  <si>
+    <t>58.9%+58.9%</t>
+  </si>
+  <si>
+    <t>63.7%+63.7%</t>
+  </si>
+  <si>
+    <t>68.4%+68.4%</t>
+  </si>
+  <si>
+    <t>73.6%+73.6%</t>
+  </si>
+  <si>
+    <t>78.8%+78.8%</t>
+  </si>
+  <si>
+    <t>84.0%+84.0%</t>
+  </si>
+  <si>
+    <t>89.2%+89.2%</t>
+  </si>
+  <si>
+    <t>94.4%+94.4%</t>
+  </si>
+  <si>
+    <t>99.6%+99.6%</t>
+  </si>
+  <si>
+    <t>4단 공격 피해</t>
+  </si>
+  <si>
+    <t>73.5%</t>
+  </si>
+  <si>
+    <t>79.5%</t>
+  </si>
+  <si>
+    <t>85.5%</t>
+  </si>
+  <si>
+    <t>94.0%</t>
+  </si>
+  <si>
+    <t>100.0%</t>
+  </si>
+  <si>
+    <t>106.8%</t>
+  </si>
+  <si>
+    <t>116.2%</t>
+  </si>
+  <si>
+    <t>125.6%</t>
+  </si>
+  <si>
+    <t>135.0%</t>
+  </si>
+  <si>
+    <t>145.3%</t>
+  </si>
+  <si>
+    <t>155.5%</t>
+  </si>
+  <si>
+    <t>165.8%</t>
+  </si>
+  <si>
+    <t>176.1%</t>
+  </si>
+  <si>
+    <t>186.3%</t>
+  </si>
+  <si>
+    <t>196.6%</t>
+  </si>
+  <si>
+    <t>5단 공격 피해</t>
+  </si>
+  <si>
+    <t>96.5%</t>
+  </si>
+  <si>
+    <t>112.3%</t>
+  </si>
+  <si>
+    <t>123.5%</t>
+  </si>
+  <si>
+    <t>131.3%</t>
+  </si>
+  <si>
+    <t>140.3%</t>
+  </si>
+  <si>
+    <t>152.7%</t>
+  </si>
+  <si>
+    <t>165.0%</t>
+  </si>
+  <si>
+    <t>177.4%</t>
+  </si>
+  <si>
+    <t>190.8%</t>
+  </si>
+  <si>
+    <t>204.3%</t>
+  </si>
+  <si>
+    <t>217.8%</t>
+  </si>
+  <si>
+    <t>231.2%</t>
+  </si>
+  <si>
+    <t>244.7%</t>
+  </si>
+  <si>
+    <t>258.2%</t>
+  </si>
+  <si>
+    <t>강공격 피해</t>
+  </si>
+  <si>
+    <t>71.2%+71.2%</t>
+  </si>
+  <si>
+    <t>77.0%+77.0%</t>
+  </si>
+  <si>
+    <t>82.8%+82.8%</t>
+  </si>
+  <si>
+    <t>91.1%+91.1%</t>
+  </si>
+  <si>
+    <t>96.9%+96.9%</t>
+  </si>
+  <si>
+    <t>103.5%+103.5%</t>
+  </si>
+  <si>
+    <t>112.6%+112.6%</t>
+  </si>
+  <si>
+    <t>121.7%+121.7%</t>
+  </si>
+  <si>
+    <t>130.8%+130.8%</t>
+  </si>
+  <si>
+    <t>140.8%+140.8%</t>
+  </si>
+  <si>
+    <t>150.7%+150.7%</t>
+  </si>
+  <si>
+    <t>160.6%+160.6%</t>
+  </si>
+  <si>
+    <t>170.6%+170.6%</t>
+  </si>
+  <si>
+    <t>180.5%+180.5%</t>
+  </si>
+  <si>
+    <t>190.4%+190.4%</t>
+  </si>
+  <si>
+    <t>강공격 스태미나 소모</t>
+  </si>
+  <si>
+    <t>20.0pt</t>
+  </si>
+  <si>
+    <t>낙하 기간 피해</t>
+  </si>
+  <si>
+    <t>63.9%</t>
+  </si>
+  <si>
+    <t>69.1%</t>
+  </si>
+  <si>
+    <t>74.3%</t>
+  </si>
+  <si>
+    <t>81.8%</t>
+  </si>
+  <si>
+    <t>87.0%</t>
+  </si>
+  <si>
+    <t>92.9%</t>
+  </si>
+  <si>
+    <t>101.1%</t>
+  </si>
+  <si>
+    <t>109.3%</t>
+  </si>
+  <si>
+    <t>117.5%</t>
+  </si>
+  <si>
+    <t>135.3%</t>
+  </si>
+  <si>
+    <t>144.2%</t>
+  </si>
+  <si>
+    <t>153.1%</t>
+  </si>
+  <si>
+    <t>162.1%</t>
+  </si>
+  <si>
+    <t>171.0%</t>
+  </si>
+  <si>
+    <t>저공/고공 추락 충격 피해</t>
+  </si>
+  <si>
+    <t>128%/160%</t>
+  </si>
+  <si>
+    <t>138%/173%</t>
+  </si>
+  <si>
+    <t>149%/186%</t>
+  </si>
+  <si>
+    <t>164%/204%</t>
+  </si>
+  <si>
+    <t>174%/217%</t>
+  </si>
+  <si>
+    <t>186%/232%</t>
+  </si>
+  <si>
+    <t>202%/253%</t>
+  </si>
+  <si>
+    <t>219%/273%</t>
+  </si>
+  <si>
+    <t>235%/293%</t>
+  </si>
+  <si>
+    <t>253%/316%</t>
+  </si>
+  <si>
+    <t>271%/338%</t>
+  </si>
+  <si>
+    <t>288%/360%</t>
+  </si>
+  <si>
+    <t>306%/382%</t>
+  </si>
+  <si>
+    <t>324%/405%</t>
+  </si>
+  <si>
+    <t>342%/427%</t>
+  </si>
+  <si>
+    <t>보편성·정밀 모사</t>
+  </si>
+  <si>
+    <t>빠르게 돌진한 다음 주변의 적에게 풀 원소 피해를 주고 「집광 렌즈」를 생성한다.
+홀드 시 각기 다른 방식으로 발동한다.
+홀드
+조준 상태로 돌입해서 돌진할 방향을 결정한다.
+집광 렌즈
+스킬 발동 시 알하이탐이 집광 렌즈 1개를 생성한다. 만약 집광 렌즈가 하나도 없을 경우 1개를 추가로 생성한다. 집광 렌즈의 효과는 다음과 같다.
+·집광 렌즈를 보유하고 있을 경우 알하이탐의 일반 공격과 강공격, 낙하 공격으로 가하는 피해가 다른 원소 부여 효과로 대체될 수 없는 풀 원소 피해로 전환된다.
+·위 공격이 적에게 명중하면 집광 렌즈가 적에게 광선 공격을 가해서 집광 렌즈 개수에 비례하는 풀 원소 범위 피해를 준다.
+·집광 렌즈는 최대 3개까지 보유할 수 있다.
+·집광 렌즈는 시간이 지나면 사라지며, 알하이탐이 퇴장하면 전부 사라진다.
+&lt;i&gt;「진리는 불확실성 속에 존재하기 때문에 아무리 위대한 학자일지라도 오류를 피할 수 없다」&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>돌진 공격 피해</t>
+  </si>
+  <si>
+    <t>공격력의 196.0%+원소 마스터리의 392.0%</t>
+  </si>
+  <si>
+    <t>공격력의 210.7%+원소 마스터리의 421.4%</t>
+  </si>
+  <si>
+    <t>공격력의 225.4%+원소 마스터리의 450.8%</t>
+  </si>
+  <si>
+    <t>공격력의 245.0%+원소 마스터리의 490.0%</t>
+  </si>
+  <si>
+    <t>공격력의 259.7%+원소 마스터리의 519.4%</t>
+  </si>
+  <si>
+    <t>공격력의 274.4%+원소 마스터리의 548.8%</t>
+  </si>
+  <si>
+    <t>공격력의 294.0%+원소 마스터리의 588.0%</t>
+  </si>
+  <si>
+    <t>공격력의 313.6%+원소 마스터리의 627.2%</t>
+  </si>
+  <si>
+    <t>공격력의 333.2%+원소 마스터리의 666.4%</t>
+  </si>
+  <si>
+    <t>공격력의 352.8%+원소 마스터리의 705.6%</t>
+  </si>
+  <si>
+    <t>공격력의 372.4%+원소 마스터리의 744.8%</t>
+  </si>
+  <si>
+    <t>공격력의 392.0%+원소 마스터리의 784.0%</t>
+  </si>
+  <si>
+    <t>공격력의 416.5%+원소 마스터리의 833.0%</t>
+  </si>
+  <si>
+    <t>공격력의 441.0%+원소 마스터리의 882.0%</t>
+  </si>
+  <si>
+    <t>공격력의 465.5%+원소 마스터리의 931.0%</t>
+  </si>
+  <si>
+    <t>광선 공격 간격</t>
+  </si>
+  <si>
+    <t>1.6초</t>
+  </si>
+  <si>
+    <t>렌즈 1개 광선 공격 피해</t>
+  </si>
+  <si>
+    <t>공격력의 96.0%+원소 마스터리의 192.0%</t>
+  </si>
+  <si>
+    <t>공격력의 103.2%+원소 마스터리의 206.4%</t>
+  </si>
+  <si>
+    <t>공격력의 110.4%+원소 마스터리의 220.8%</t>
+  </si>
+  <si>
+    <t>공격력의 120.0%+원소 마스터리의 240.0%</t>
+  </si>
+  <si>
+    <t>공격력의 127.2%+원소 마스터리의 254.4%</t>
+  </si>
+  <si>
+    <t>공격력의 134.4%+원소 마스터리의 268.8%</t>
+  </si>
+  <si>
+    <t>공격력의 144.0%+원소 마스터리의 288.0%</t>
+  </si>
+  <si>
+    <t>공격력의 153.6%+원소 마스터리의 307.2%</t>
+  </si>
+  <si>
+    <t>공격력의 163.2%+원소 마스터리의 326.4%</t>
+  </si>
+  <si>
+    <t>공격력의 172.8%+원소 마스터리의 345.6%</t>
+  </si>
+  <si>
+    <t>공격력의 182.4%+원소 마스터리의 364.8%</t>
+  </si>
+  <si>
+    <t>공격력의 192.0%+원소 마스터리의 384.0%</t>
+  </si>
+  <si>
+    <t>공격력의 204.0%+원소 마스터리의 408.0%</t>
+  </si>
+  <si>
+    <t>공격력의 216.0%+원소 마스터리의 432.0%</t>
+  </si>
+  <si>
+    <t>공격력의 228.0%+원소 마스터리의 456.0%</t>
+  </si>
+  <si>
+    <t>렌즈 2개 광선 공격 피해</t>
+  </si>
+  <si>
+    <t>공격력의 64.0%+원소 마스터리의 128.0%</t>
+  </si>
+  <si>
+    <t>공격력의 68.8%+원소 마스터리의 137.6%</t>
+  </si>
+  <si>
+    <t>공격력의 73.6%+원소 마스터리의 147.2%</t>
+  </si>
+  <si>
+    <t>공격력의 80.0%+원소 마스터리의 160.0%</t>
+  </si>
+  <si>
+    <t>공격력의 84.8%+원소 마스터리의 169.6%</t>
+  </si>
+  <si>
+    <t>공격력의 89.6%+원소 마스터리의 179.2%</t>
+  </si>
+  <si>
+    <t>공격력의 102.4%+원소 마스터리의 204.8%</t>
+  </si>
+  <si>
+    <t>공격력의 108.8%+원소 마스터리의 217.6%</t>
+  </si>
+  <si>
+    <t>공격력의 115.2%+원소 마스터리의 230.4%</t>
+  </si>
+  <si>
+    <t>공격력의 121.6%+원소 마스터리의 243.2%</t>
+  </si>
+  <si>
+    <t>공격력의 128.0%+원소 마스터리의 256.0%</t>
+  </si>
+  <si>
+    <t>공격력의 136.0%+원소 마스터리의 272.0%</t>
+  </si>
+  <si>
+    <t>공격력의 152.0%+원소 마스터리의 304.0%</t>
+  </si>
+  <si>
+    <t>렌즈 3개 광선 공격 피해</t>
+  </si>
+  <si>
+    <t>공격력의 53.4%+원소 마스터리의 106.7%</t>
+  </si>
+  <si>
+    <t>공격력의 57.4%+원소 마스터리의 114.7%</t>
+  </si>
+  <si>
+    <t>공격력의 61.4%+원소 마스터리의 122.7%</t>
+  </si>
+  <si>
+    <t>공격력의 66.7%+원소 마스터리의 133.4%</t>
+  </si>
+  <si>
+    <t>공격력의 70.7%+원소 마스터리의 141.4%</t>
+  </si>
+  <si>
+    <t>공격력의 74.7%+원소 마스터리의 149.4%</t>
+  </si>
+  <si>
+    <t>공격력의 80.0%+원소 마스터리의 160.1%</t>
+  </si>
+  <si>
+    <t>공격력의 85.4%+원소 마스터리의 170.8%</t>
+  </si>
+  <si>
+    <t>공격력의 90.7%+원소 마스터리의 181.4%</t>
+  </si>
+  <si>
+    <t>공격력의 96.0%+원소 마스터리의 192.1%</t>
+  </si>
+  <si>
+    <t>공격력의 101.4%+원소 마스터리의 202.8%</t>
+  </si>
+  <si>
+    <t>공격력의 106.7%+원소 마스터리의 213.4%</t>
+  </si>
+  <si>
+    <t>공격력의 113.4%+원소 마스터리의 226.8%</t>
+  </si>
+  <si>
+    <t>공격력의 120.1%+원소 마스터리의 240.1%</t>
+  </si>
+  <si>
+    <t>공격력의 126.7%+원소 마스터리의 253.5%</t>
+  </si>
+  <si>
+    <t>집광 렌즈 소멸 간격</t>
+  </si>
+  <si>
+    <t>4.0초</t>
+  </si>
+  <si>
+    <t>재사용 대기시간</t>
+  </si>
+  <si>
+    <t>18.0초</t>
+  </si>
+  <si>
+    <t>특정성·현상의 족쇄</t>
+  </si>
+  <si>
+    <t>특수 렌즈를 소환해서 여러 번에 걸쳐 풀 원소 범위 피해를 준다.
+스킬 발동 시 집광 렌즈가 존재할 경우, 집광 렌즈를 모두 소모하는 대신 공격 횟수가 증가한다.
+발동 완료 2초 후 집광 렌즈가 생성된다. 이때 생성되는 집광 렌즈의 수는 해당 스킬 발동으로 인해 소모되었던 집광 렌즈의 수에 따라 결정된다.
+·집광 렌즈를 소모하지 않았을 경우 3개가 생성된다.
+·렌즈를 1개 소모했을 경우 2개가 생성된다.
+·렌즈를 2개 소모했을 경우 1개가 생성된다.
+·렌즈를 3개 소모했을 경우 렌즈가 생성되지 않는다.
+&lt;i&gt;「무릇 지혜를 추구하는 것을 목표로 삼은 학자라면 책의 글자 하나하나를 적을 대하듯이 해야 한다. 그래야만 편견에 휘말리는 것을 피할 수 있으니까」&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>1회 피해</t>
+  </si>
+  <si>
+    <t>공격력의 130.7%+원소 마스터리의 261.4%</t>
+  </si>
+  <si>
+    <t>공격력의 139.8%+원소 마스터리의 279.7%</t>
+  </si>
+  <si>
+    <t>공격력의 161.1%+원소 마스터리의 322.2%</t>
+  </si>
+  <si>
+    <t>공격력의 170.2%+원소 마스터리의 340.5%</t>
+  </si>
+  <si>
+    <t>공격력의 194.6%+원소 마스터리의 389.1%</t>
+  </si>
+  <si>
+    <t>공격력의 206.7%+원소 마스터리의 413.4%</t>
+  </si>
+  <si>
+    <t>공격력의 218.9%+원소 마스터리의 437.8%</t>
+  </si>
+  <si>
+    <t>공격력의 231.0%+원소 마스터리의 462.1%</t>
+  </si>
+  <si>
+    <t>공격력의 243.2%+원소 마스터리의 486.4%</t>
+  </si>
+  <si>
+    <t>공격력의 258.4%+원소 마스터리의 516.8%</t>
+  </si>
+  <si>
+    <t>공격력의 273.6%+원소 마스터리의 547.2%</t>
+  </si>
+  <si>
+    <t>공격력의 288.8%+원소 마스터리의 577.6%</t>
+  </si>
+  <si>
+    <t>기본 공격 횟수</t>
+  </si>
+  <si>
+    <t>4회</t>
+  </si>
+  <si>
+    <t>렌즈 1개 공격 횟수</t>
+  </si>
+  <si>
+    <t>6회</t>
+  </si>
+  <si>
+    <t>렌즈 2개 공격 횟수</t>
+  </si>
+  <si>
+    <t>8회</t>
+  </si>
+  <si>
+    <t>렌즈 3개 공격 횟수</t>
+  </si>
+  <si>
+    <t>10회</t>
+  </si>
+  <si>
+    <t>원소 에너지</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,84 +971,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -411,88 +1272,2053 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>알하이탐</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Rarity</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>QUALITY_ORANGE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Weapon</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>WEAPON_SWORD_ONE_HAND</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BaseHP</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1039.118774414062</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BaseATK</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>24.3922004699707</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BaseDEF</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>60.84711074829102</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FIGHT_PROP_GRASS_ADD_HURT</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2879999876022339</v>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2">
+        <v>13348</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2">
+        <v>313</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2">
+        <v>781</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="100" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="100" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="100" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="100" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="100" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="100" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="100" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="100" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="100" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" ht="200" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" ht="200" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:16" ht="200" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>273</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>292</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>294</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="56">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A62:P62"/>
+    <mergeCell ref="A63:P63"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/res/10000078.xlsx
+++ b/res/10000078.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="296">
-  <si>
-    <t>알하이탐</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="300">
+  <si>
+    <t>艾尔海森</t>
   </si>
   <si>
     <t>Rarity</t>
@@ -49,22 +49,22 @@
     <t>Promote Costs</t>
   </si>
   <si>
-    <t>자라나는 비취 가루 x1, 모래 번데기 x3, 빛바랜 붉은 비단 x3</t>
-  </si>
-  <si>
-    <t>자라나는 비취 조각 x3, 창색의 날개꽃 x2, 모래 번데기 x10, 빛바랜 붉은 비단 x15</t>
-  </si>
-  <si>
-    <t>자라나는 비취 조각 x6, 창색의 날개꽃 x4, 모래 번데기 x20, 장식된 붉은 비단 x12</t>
-  </si>
-  <si>
-    <t>자라나는 비취 덩이 x3, 창색의 날개꽃 x8, 모래 번데기 x30, 장식된 붉은 비단 x18</t>
-  </si>
-  <si>
-    <t>자라나는 비취 덩이 x6, 창색의 날개꽃 x12, 모래 번데기 x45, 금자수 붉은 비단 x12</t>
-  </si>
-  <si>
-    <t>자라나는 비취 x6, 창색의 날개꽃 x20, 모래 번데기 x60, 금자수 붉은 비단 x24</t>
+    <t>生长碧翡碎屑 x1, 沙脂蛹 x3, 褪色红绸 x3</t>
+  </si>
+  <si>
+    <t>生长碧翡断片 x3, 苍砾蕊羽 x2, 沙脂蛹 x10, 褪色红绸 x15</t>
+  </si>
+  <si>
+    <t>生长碧翡断片 x6, 苍砾蕊羽 x4, 沙脂蛹 x20, 镶边红绸 x12</t>
+  </si>
+  <si>
+    <t>生长碧翡块 x3, 苍砾蕊羽 x8, 沙脂蛹 x30, 镶边红绸 x18</t>
+  </si>
+  <si>
+    <t>生长碧翡块 x6, 苍砾蕊羽 x12, 沙脂蛹 x45, 织金红绸 x12</t>
+  </si>
+  <si>
+    <t>生长碧翡 x6, 苍砾蕊羽 x20, 沙脂蛹 x60, 织金红绸 x24</t>
   </si>
   <si>
     <t>Skill Upgrade Costs</t>
@@ -73,55 +73,55 @@
     <t>Lv.2</t>
   </si>
   <si>
-    <t>「창의」의 가르침 x3, 빛바랜 붉은 비단 x6</t>
+    <t>「巧思」的教导 x3, 褪色红绸 x6</t>
   </si>
   <si>
     <t>Lv.3</t>
   </si>
   <si>
-    <t>「창의」의 인도 x2, 장식된 붉은 비단 x3</t>
+    <t>「巧思」的指引 x2, 镶边红绸 x3</t>
   </si>
   <si>
     <t>Lv.4</t>
   </si>
   <si>
-    <t>「창의」의 인도 x4, 장식된 붉은 비단 x4</t>
+    <t>「巧思」的指引 x4, 镶边红绸 x4</t>
   </si>
   <si>
     <t>Lv.5</t>
   </si>
   <si>
-    <t>「창의」의 인도 x6, 장식된 붉은 비단 x6</t>
+    <t>「巧思」的指引 x6, 镶边红绸 x6</t>
   </si>
   <si>
     <t>Lv.6</t>
   </si>
   <si>
-    <t>「창의」의 인도 x9, 장식된 붉은 비단 x9</t>
+    <t>「巧思」的指引 x9, 镶边红绸 x9</t>
   </si>
   <si>
     <t>Lv.7</t>
   </si>
   <si>
-    <t>「창의」의 철학 x4, 금자수 붉은 비단 x4, 무념의 거울 x1</t>
+    <t>「巧思」的哲学 x4, 织金红绸 x4, 无心的渊镜 x1</t>
   </si>
   <si>
     <t>Lv.8</t>
   </si>
   <si>
-    <t>「창의」의 철학 x6, 금자수 붉은 비단 x6, 무념의 거울 x1</t>
+    <t>「巧思」的哲学 x6, 织金红绸 x6, 无心的渊镜 x1</t>
   </si>
   <si>
     <t>Lv.9</t>
   </si>
   <si>
-    <t>「창의」의 철학 x12, 금자수 붉은 비단 x9, 무념의 거울 x2</t>
+    <t>「巧思」的哲学 x12, 织金红绸 x9, 无心的渊镜 x2</t>
   </si>
   <si>
     <t>Lv.10</t>
   </si>
   <si>
-    <t>「창의」의 철학 x16, 금자수 붉은 비단 x12, 무념의 거울 x2, 지식의 왕관 x1</t>
+    <t>「巧思」的哲学 x16, 织金红绸 x12, 无心的渊镜 x2, 智识之冕 x1</t>
   </si>
   <si>
     <t>Constellations</t>
@@ -130,55 +130,56 @@
     <t>Real Value</t>
   </si>
   <si>
-    <t>직관</t>
-  </si>
-  <si>
-    <t>광막 공격이 적에게 명중하면 보편성·이데아 모사의 재사용 대기 시간이 1초 감소한다. 해당 효과는 1초마다 최대 1회 발동된다</t>
+    <t>直观</t>
+  </si>
+  <si>
+    <t>光幕攻击命中敌人时，将使共相·理式摹写的冷却时间减少1秒。该效果每1秒至多触发一次。</t>
   </si>
   <si>
     <t>[1.0, 1.0]</t>
   </si>
   <si>
-    <t>논증</t>
-  </si>
-  <si>
-    <t>알하이탐이 빛조각을 생성했을 때, 생성된 빛조각 1개당 원소 마스터리가 40pt 증가한다, 지속 시간: 8초. 해당 효과는 최대 4스택까지 중첩되고, 각 스택의 지속 시간은 독립적으로 계산된다. 빛조각이 최대 수량에 도달해도 해당 효과는 발동된다</t>
+    <t>辩章</t>
+  </si>
+  <si>
+    <t>艾尔海森产生琢光镜时，每1枚产生的琢光镜将使元素精通提升40点，持续8秒。该效果最多叠加4层，每层独立计算持续时间。琢光镜数量达到上限时依然能触发该效果。</t>
   </si>
   <si>
     <t>[40.0, 8.0, 4.0]</t>
   </si>
   <si>
-    <t>반례</t>
-  </si>
-  <si>
-    <t>보편성·정밀 모사의 스킬 레벨+3. 최대 Lv.15까지 상승</t>
+    <t>遮诠</t>
+  </si>
+  <si>
+    <t>共相·理式摹写的技能等级提高3级。至多提升至15级。</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>해명</t>
-  </si>
-  <si>
-    <t>특정성·현상의 족쇄 발동 시 방금 소모 또는 생성된 집광 렌즈의 수에 따라 다음 효과가 발동된다.
-·소모된 집광 렌즈 1개당 자신과 다른 파티원의 원소 마스터리가 30 증가한다. 지속 시간: 15초
-·생성된 집광 렌즈 1개당 알하이탐이 10%의 풀 원소 피해 보너스를 획득한다. 지속 시간: 15초</t>
+    <t>义贯</t>
+  </si>
+  <si>
+    <t>施放殊境·显象缚结时，会依据通过本次施放消耗与产生的琢光镜数量，产生如下效果：
+·每消耗1枚琢光镜，使队伍中的其他角色元素精通提升30点，持续15秒；
+·每产生1枚琢光镜，使艾尔海森获得10%草元素伤害加成，持续15秒。
+上述效果的持续期间内重复施放殊境·显象缚结时，将先移除原有的效果。</t>
   </si>
   <si>
     <t>[30.0, 15.0, 0.10000000149011612, 15.0]</t>
   </si>
   <si>
-    <t>총명함</t>
-  </si>
-  <si>
-    <t>특정성·현상의 족쇄의 스킬 레벨+3. 최대 Lv.15까지 상승</t>
-  </si>
-  <si>
-    <t>정리</t>
-  </si>
-  <si>
-    <t>알하이탐이 집광 렌즈를 생성했을 때 렌즈의 수가 한도에 도달했을 경우, 한도를 초과한 렌즈 1개당 알하이탐의 치명타 확률이 10%, 치명타 피해가 70% 증가한다. 지속 시간: 6초
-지속 시간 동안 해당 효과가 다시 발동할 경우 지속 시간이 6초 증가한다</t>
+    <t>智度</t>
+  </si>
+  <si>
+    <t>殊境·显象缚结的技能等级提高3级。至多提升至15级。</t>
+  </si>
+  <si>
+    <t>正理</t>
+  </si>
+  <si>
+    <t>艾尔海森产生琢光镜时，若琢光镜数量已达到上限，艾尔海森的暴击率提升10%，暴击伤害提升70%，持续6秒。
+该效果在持续期间重复触发时，剩余持续时间将增加6秒。</t>
   </si>
   <si>
     <t>[0.10000000149011612, 0.699999988079071, 6.0]</t>
@@ -187,40 +188,40 @@
     <t>Passives</t>
   </si>
   <si>
-    <t>4단 인과 논증</t>
-  </si>
-  <si>
-    <t>알하이탐의 강공격 및 낙하 공격이 적에게 적중하면 집광 렌즈 1개를 생성한다. 해당 효과는 12초마다 최대 1회 발동한다</t>
+    <t>四因订顽</t>
+  </si>
+  <si>
+    <t>艾尔海森的重击或下落攻击命中敌人时，将产生一枚琢光镜。该效果每12秒至多触发一次。</t>
   </si>
   <si>
     <t>[12.0]</t>
   </si>
   <si>
-    <t>밝혀진 비밀</t>
-  </si>
-  <si>
-    <t>알하이탐의 원소 마스터리 1pt당 광선 피해와 특정성·현상의 족쇄가 가하는 피해가 0.1% 증가한다.
-해당 방식으로 광선과 특정성·현상의 족쇄의 피해는 최대 100%까지 증가한다</t>
+    <t>谜林道破</t>
+  </si>
+  <si>
+    <t>艾尔海森的每点元素精通，都会使光幕伤害与殊境·显象缚结造成的伤害提升0.12%。
+通过这种方式，至多使光幕伤害与殊境·显象缚结造成的伤害提升100%。</t>
   </si>
   <si>
     <t>[0.0012000000569969416, 1.0]</t>
   </si>
   <si>
-    <t>라이프 특성</t>
-  </si>
-  <si>
-    <t>무기 돌파 소재를 합성 시 10%의 확률로 생산량의 2배를 획득한다</t>
-  </si>
-  <si>
-    <t>일반 공격·인명의 검</t>
-  </si>
-  <si>
-    <t>일반 공격
-검으로 최대 5번 공격한다.
-강공격
-일정 스태미나를 소모해 순간적으로 전방을 향해 검을 2번 휘두른다.
-낙하 공격
-공중에서 땅을 내려찍어 경로상의 적을 공격하고, 착지 시 범위 피해를 준다</t>
+    <t>超定归约律</t>
+  </si>
+  <si>
+    <t>合成武器突破素材时，有10%概率获得2倍产出。</t>
+  </si>
+  <si>
+    <t>普通攻击·溯因反绎法</t>
+  </si>
+  <si>
+    <t>普通攻击
+进行至多五段的连续剑击。
+重击
+消耗一定体力，瞬间向前方挥出两剑。
+下落攻击
+从空中下坠冲击地面，攻击下落路径上的敌人，并在落地时造成范围伤害。</t>
   </si>
   <si>
     <t>Modifier</t>
@@ -244,7 +245,7 @@
     <t>Lv.15</t>
   </si>
   <si>
-    <t>1단 공격 피해</t>
+    <t>一段伤害</t>
   </si>
   <si>
     <t>56.0%</t>
@@ -292,7 +293,7 @@
     <t>149.9%</t>
   </si>
   <si>
-    <t>2단 공격 피해</t>
+    <t>二段伤害</t>
   </si>
   <si>
     <t>56.8%</t>
@@ -340,7 +341,7 @@
     <t>152.0%</t>
   </si>
   <si>
-    <t>3단 공격 피해</t>
+    <t>三段伤害</t>
   </si>
   <si>
     <t>37.2%+37.2%</t>
@@ -388,7 +389,7 @@
     <t>99.6%+99.6%</t>
   </si>
   <si>
-    <t>4단 공격 피해</t>
+    <t>四段伤害</t>
   </si>
   <si>
     <t>73.5%</t>
@@ -436,7 +437,7 @@
     <t>196.6%</t>
   </si>
   <si>
-    <t>5단 공격 피해</t>
+    <t>五段伤害</t>
   </si>
   <si>
     <t>96.5%</t>
@@ -481,7 +482,7 @@
     <t>258.2%</t>
   </si>
   <si>
-    <t>강공격 피해</t>
+    <t>重击伤害</t>
   </si>
   <si>
     <t>71.2%+71.2%</t>
@@ -529,13 +530,13 @@
     <t>190.4%+190.4%</t>
   </si>
   <si>
-    <t>강공격 스태미나 소모</t>
-  </si>
-  <si>
-    <t>20.0pt</t>
-  </si>
-  <si>
-    <t>낙하 기간 피해</t>
+    <t>重击体力消耗</t>
+  </si>
+  <si>
+    <t>20.0点</t>
+  </si>
+  <si>
+    <t>下坠期间伤害</t>
   </si>
   <si>
     <t>63.9%</t>
@@ -580,7 +581,7 @@
     <t>171.0%</t>
   </si>
   <si>
-    <t>저공/고공 추락 충격 피해</t>
+    <t>低空/高空坠地冲击伤害</t>
   </si>
   <si>
     <t>128%/160%</t>
@@ -628,303 +629,311 @@
     <t>342%/427%</t>
   </si>
   <si>
-    <t>보편성·정밀 모사</t>
-  </si>
-  <si>
-    <t>빠르게 돌진한 다음 주변의 적에게 풀 원소 피해를 주고 「집광 렌즈」를 생성한다.
-홀드 시 각기 다른 방식으로 발동한다.
-홀드
-조준 상태로 돌입해서 돌진할 방향을 결정한다.
-집광 렌즈
-스킬 발동 시 알하이탐이 집광 렌즈 1개를 생성한다. 만약 집광 렌즈가 하나도 없을 경우 1개를 추가로 생성한다. 집광 렌즈의 효과는 다음과 같다.
-·집광 렌즈를 보유하고 있을 경우 알하이탐의 일반 공격과 강공격, 낙하 공격으로 가하는 피해가 다른 원소 부여 효과로 대체될 수 없는 풀 원소 피해로 전환된다.
-·위 공격이 적에게 명중하면 집광 렌즈가 적에게 광선 공격을 가해서 집광 렌즈 개수에 비례하는 풀 원소 범위 피해를 준다.
-·집광 렌즈는 최대 3개까지 보유할 수 있다.
-·집광 렌즈는 시간이 지나면 사라지며, 알하이탐이 퇴장하면 전부 사라진다.
-&lt;i&gt;「진리는 불확실성 속에 존재하기 때문에 아무리 위대한 학자일지라도 오류를 피할 수 없다」&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>돌진 공격 피해</t>
-  </si>
-  <si>
-    <t>공격력의 196.0%+원소 마스터리의 392.0%</t>
-  </si>
-  <si>
-    <t>공격력의 210.7%+원소 마스터리의 421.4%</t>
-  </si>
-  <si>
-    <t>공격력의 225.4%+원소 마스터리의 450.8%</t>
-  </si>
-  <si>
-    <t>공격력의 245.0%+원소 마스터리의 490.0%</t>
-  </si>
-  <si>
-    <t>공격력의 259.7%+원소 마스터리의 519.4%</t>
-  </si>
-  <si>
-    <t>공격력의 274.4%+원소 마스터리의 548.8%</t>
-  </si>
-  <si>
-    <t>공격력의 294.0%+원소 마스터리의 588.0%</t>
-  </si>
-  <si>
-    <t>공격력의 313.6%+원소 마스터리의 627.2%</t>
-  </si>
-  <si>
-    <t>공격력의 333.2%+원소 마스터리의 666.4%</t>
-  </si>
-  <si>
-    <t>공격력의 352.8%+원소 마스터리의 705.6%</t>
-  </si>
-  <si>
-    <t>공격력의 372.4%+원소 마스터리의 744.8%</t>
-  </si>
-  <si>
-    <t>공격력의 392.0%+원소 마스터리의 784.0%</t>
-  </si>
-  <si>
-    <t>공격력의 416.5%+원소 마스터리의 833.0%</t>
-  </si>
-  <si>
-    <t>공격력의 441.0%+원소 마스터리의 882.0%</t>
-  </si>
-  <si>
-    <t>공격력의 465.5%+원소 마스터리의 931.0%</t>
-  </si>
-  <si>
-    <t>광선 공격 간격</t>
-  </si>
-  <si>
-    <t>1.6초</t>
-  </si>
-  <si>
-    <t>렌즈 1개 광선 공격 피해</t>
-  </si>
-  <si>
-    <t>공격력의 96.0%+원소 마스터리의 192.0%</t>
-  </si>
-  <si>
-    <t>공격력의 103.2%+원소 마스터리의 206.4%</t>
-  </si>
-  <si>
-    <t>공격력의 110.4%+원소 마스터리의 220.8%</t>
-  </si>
-  <si>
-    <t>공격력의 120.0%+원소 마스터리의 240.0%</t>
-  </si>
-  <si>
-    <t>공격력의 127.2%+원소 마스터리의 254.4%</t>
-  </si>
-  <si>
-    <t>공격력의 134.4%+원소 마스터리의 268.8%</t>
-  </si>
-  <si>
-    <t>공격력의 144.0%+원소 마스터리의 288.0%</t>
-  </si>
-  <si>
-    <t>공격력의 153.6%+원소 마스터리의 307.2%</t>
-  </si>
-  <si>
-    <t>공격력의 163.2%+원소 마스터리의 326.4%</t>
-  </si>
-  <si>
-    <t>공격력의 172.8%+원소 마스터리의 345.6%</t>
-  </si>
-  <si>
-    <t>공격력의 182.4%+원소 마스터리의 364.8%</t>
-  </si>
-  <si>
-    <t>공격력의 192.0%+원소 마스터리의 384.0%</t>
-  </si>
-  <si>
-    <t>공격력의 204.0%+원소 마스터리의 408.0%</t>
-  </si>
-  <si>
-    <t>공격력의 216.0%+원소 마스터리의 432.0%</t>
-  </si>
-  <si>
-    <t>공격력의 228.0%+원소 마스터리의 456.0%</t>
-  </si>
-  <si>
-    <t>렌즈 2개 광선 공격 피해</t>
-  </si>
-  <si>
-    <t>공격력의 64.0%+원소 마스터리의 128.0%</t>
-  </si>
-  <si>
-    <t>공격력의 68.8%+원소 마스터리의 137.6%</t>
-  </si>
-  <si>
-    <t>공격력의 73.6%+원소 마스터리의 147.2%</t>
-  </si>
-  <si>
-    <t>공격력의 80.0%+원소 마스터리의 160.0%</t>
-  </si>
-  <si>
-    <t>공격력의 84.8%+원소 마스터리의 169.6%</t>
-  </si>
-  <si>
-    <t>공격력의 89.6%+원소 마스터리의 179.2%</t>
-  </si>
-  <si>
-    <t>공격력의 102.4%+원소 마스터리의 204.8%</t>
-  </si>
-  <si>
-    <t>공격력의 108.8%+원소 마스터리의 217.6%</t>
-  </si>
-  <si>
-    <t>공격력의 115.2%+원소 마스터리의 230.4%</t>
-  </si>
-  <si>
-    <t>공격력의 121.6%+원소 마스터리의 243.2%</t>
-  </si>
-  <si>
-    <t>공격력의 128.0%+원소 마스터리의 256.0%</t>
-  </si>
-  <si>
-    <t>공격력의 136.0%+원소 마스터리의 272.0%</t>
-  </si>
-  <si>
-    <t>공격력의 152.0%+원소 마스터리의 304.0%</t>
-  </si>
-  <si>
-    <t>렌즈 3개 광선 공격 피해</t>
-  </si>
-  <si>
-    <t>공격력의 53.4%+원소 마스터리의 106.7%</t>
-  </si>
-  <si>
-    <t>공격력의 57.4%+원소 마스터리의 114.7%</t>
-  </si>
-  <si>
-    <t>공격력의 61.4%+원소 마스터리의 122.7%</t>
-  </si>
-  <si>
-    <t>공격력의 66.7%+원소 마스터리의 133.4%</t>
-  </si>
-  <si>
-    <t>공격력의 70.7%+원소 마스터리의 141.4%</t>
-  </si>
-  <si>
-    <t>공격력의 74.7%+원소 마스터리의 149.4%</t>
-  </si>
-  <si>
-    <t>공격력의 80.0%+원소 마스터리의 160.1%</t>
-  </si>
-  <si>
-    <t>공격력의 85.4%+원소 마스터리의 170.8%</t>
-  </si>
-  <si>
-    <t>공격력의 90.7%+원소 마스터리의 181.4%</t>
-  </si>
-  <si>
-    <t>공격력의 96.0%+원소 마스터리의 192.1%</t>
-  </si>
-  <si>
-    <t>공격력의 101.4%+원소 마스터리의 202.8%</t>
-  </si>
-  <si>
-    <t>공격력의 106.7%+원소 마스터리의 213.4%</t>
-  </si>
-  <si>
-    <t>공격력의 113.4%+원소 마스터리의 226.8%</t>
-  </si>
-  <si>
-    <t>공격력의 120.1%+원소 마스터리의 240.1%</t>
-  </si>
-  <si>
-    <t>공격력의 126.7%+원소 마스터리의 253.5%</t>
-  </si>
-  <si>
-    <t>집광 렌즈 소멸 간격</t>
-  </si>
-  <si>
-    <t>4.0초</t>
-  </si>
-  <si>
-    <t>재사용 대기시간</t>
-  </si>
-  <si>
-    <t>18.0초</t>
-  </si>
-  <si>
-    <t>특정성·현상의 족쇄</t>
-  </si>
-  <si>
-    <t>특수 렌즈를 소환해서 여러 번에 걸쳐 풀 원소 범위 피해를 준다.
-스킬 발동 시 집광 렌즈가 존재할 경우, 집광 렌즈를 모두 소모하는 대신 공격 횟수가 증가한다.
-발동 완료 2초 후 집광 렌즈가 생성된다. 이때 생성되는 집광 렌즈의 수는 해당 스킬 발동으로 인해 소모되었던 집광 렌즈의 수에 따라 결정된다.
-·집광 렌즈를 소모하지 않았을 경우 3개가 생성된다.
-·렌즈를 1개 소모했을 경우 2개가 생성된다.
-·렌즈를 2개 소모했을 경우 1개가 생성된다.
-·렌즈를 3개 소모했을 경우 렌즈가 생성되지 않는다.
-&lt;i&gt;「무릇 지혜를 추구하는 것을 목표로 삼은 학자라면 책의 글자 하나하나를 적을 대하듯이 해야 한다. 그래야만 편견에 휘말리는 것을 피할 수 있으니까」&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>1회 피해</t>
-  </si>
-  <si>
-    <t>공격력의 130.7%+원소 마스터리의 261.4%</t>
-  </si>
-  <si>
-    <t>공격력의 139.8%+원소 마스터리의 279.7%</t>
-  </si>
-  <si>
-    <t>공격력의 161.1%+원소 마스터리의 322.2%</t>
-  </si>
-  <si>
-    <t>공격력의 170.2%+원소 마스터리의 340.5%</t>
-  </si>
-  <si>
-    <t>공격력의 194.6%+원소 마스터리의 389.1%</t>
-  </si>
-  <si>
-    <t>공격력의 206.7%+원소 마스터리의 413.4%</t>
-  </si>
-  <si>
-    <t>공격력의 218.9%+원소 마스터리의 437.8%</t>
-  </si>
-  <si>
-    <t>공격력의 231.0%+원소 마스터리의 462.1%</t>
-  </si>
-  <si>
-    <t>공격력의 243.2%+원소 마스터리의 486.4%</t>
-  </si>
-  <si>
-    <t>공격력의 258.4%+원소 마스터리의 516.8%</t>
-  </si>
-  <si>
-    <t>공격력의 273.6%+원소 마스터리의 547.2%</t>
-  </si>
-  <si>
-    <t>공격력의 288.8%+원소 마스터리의 577.6%</t>
-  </si>
-  <si>
-    <t>기본 공격 횟수</t>
-  </si>
-  <si>
-    <t>4회</t>
-  </si>
-  <si>
-    <t>렌즈 1개 공격 횟수</t>
-  </si>
-  <si>
-    <t>6회</t>
-  </si>
-  <si>
-    <t>렌즈 2개 공격 횟수</t>
-  </si>
-  <si>
-    <t>8회</t>
-  </si>
-  <si>
-    <t>렌즈 3개 공격 횟수</t>
-  </si>
-  <si>
-    <t>10회</t>
-  </si>
-  <si>
-    <t>원소 에너지</t>
+    <t>共相·理式摹写</t>
+  </si>
+  <si>
+    <t>迅速突进，在突进结束时对身边的敌人造成草元素伤害，并凝聚「琢光镜」。
+长按时将以不同的方式施放。
+长按
+进入瞄准状态，以调整突进的方向。
+琢光镜
+施放时，艾尔海森将产生1枚琢光镜；若此时未持有任何琢光镜，则额外产生1枚。琢光镜具有如下效果：
+·持有琢光镜时，艾尔海森的普通攻击、重击与下落攻击将转为无法被附魔覆盖的草元素伤害；
+·上述攻击命中敌人时，琢光镜将进行光幕攻击，造成基于琢光镜数量的草元素范围伤害；
+·至多持有3枚琢光镜；
+·琢光镜将随着时间流逝逐枚消失，并将在艾尔海森退场时全部消失。
+&lt;i&gt;「真理本就存在于不确定性当中，即便再伟大的学者也不能免于错谬。」&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>突进攻击伤害</t>
+  </si>
+  <si>
+    <t>196.0%攻击力+392.0%元素精通</t>
+  </si>
+  <si>
+    <t>210.7%攻击力+421.4%元素精通</t>
+  </si>
+  <si>
+    <t>225.4%攻击力+450.8%元素精通</t>
+  </si>
+  <si>
+    <t>245.0%攻击力+490.0%元素精通</t>
+  </si>
+  <si>
+    <t>259.7%攻击力+519.4%元素精通</t>
+  </si>
+  <si>
+    <t>274.4%攻击力+548.8%元素精通</t>
+  </si>
+  <si>
+    <t>294.0%攻击力+588.0%元素精通</t>
+  </si>
+  <si>
+    <t>313.6%攻击力+627.2%元素精通</t>
+  </si>
+  <si>
+    <t>333.2%攻击力+666.4%元素精通</t>
+  </si>
+  <si>
+    <t>352.8%攻击力+705.6%元素精通</t>
+  </si>
+  <si>
+    <t>372.4%攻击力+744.8%元素精通</t>
+  </si>
+  <si>
+    <t>392.0%攻击力+784.0%元素精通</t>
+  </si>
+  <si>
+    <t>416.5%攻击力+833.0%元素精通</t>
+  </si>
+  <si>
+    <t>441.0%攻击力+882.0%元素精通</t>
+  </si>
+  <si>
+    <t>465.5%攻击力+931.0%元素精通</t>
+  </si>
+  <si>
+    <t>光幕攻击间隔</t>
+  </si>
+  <si>
+    <t>1.6秒</t>
+  </si>
+  <si>
+    <t>1枚光幕攻击伤害</t>
+  </si>
+  <si>
+    <t>96.0%攻击力+192.0%元素精通</t>
+  </si>
+  <si>
+    <t>103.2%攻击力+206.4%元素精通</t>
+  </si>
+  <si>
+    <t>110.4%攻击力+220.8%元素精通</t>
+  </si>
+  <si>
+    <t>120.0%攻击力+240.0%元素精通</t>
+  </si>
+  <si>
+    <t>127.2%攻击力+254.4%元素精通</t>
+  </si>
+  <si>
+    <t>134.4%攻击力+268.8%元素精通</t>
+  </si>
+  <si>
+    <t>144.0%攻击力+288.0%元素精通</t>
+  </si>
+  <si>
+    <t>153.6%攻击力+307.2%元素精通</t>
+  </si>
+  <si>
+    <t>163.2%攻击力+326.4%元素精通</t>
+  </si>
+  <si>
+    <t>172.8%攻击力+345.6%元素精通</t>
+  </si>
+  <si>
+    <t>182.4%攻击力+364.8%元素精通</t>
+  </si>
+  <si>
+    <t>192.0%攻击力+384.0%元素精通</t>
+  </si>
+  <si>
+    <t>204.0%攻击力+408.0%元素精通</t>
+  </si>
+  <si>
+    <t>216.0%攻击力+432.0%元素精通</t>
+  </si>
+  <si>
+    <t>228.0%攻击力+456.0%元素精通</t>
+  </si>
+  <si>
+    <t>2枚光幕攻击伤害</t>
+  </si>
+  <si>
+    <t>(64.0%攻击力+128.0%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(68.8%攻击力+137.6%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(73.6%攻击力+147.2%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(80.0%攻击力+160.0%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(84.8%攻击力+169.6%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(89.6%攻击力+179.2%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(96.0%攻击力+192.0%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(102.4%攻击力+204.8%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(108.8%攻击力+217.6%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(115.2%攻击力+230.4%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(121.6%攻击力+243.2%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(128.0%攻击力+256.0%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(136.0%攻击力+272.0%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(144.0%攻击力+288.0%元素精通)*2</t>
+  </si>
+  <si>
+    <t>(152.0%攻击力+304.0%元素精通)*2</t>
+  </si>
+  <si>
+    <t>3枚光幕攻击伤害</t>
+  </si>
+  <si>
+    <t>(53.4%攻击力+106.7%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(57.4%攻击力+114.7%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(61.4%攻击力+122.7%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(66.7%攻击力+133.4%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(70.7%攻击力+141.4%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(74.7%攻击力+149.4%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(80.0%攻击力+160.1%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(85.4%攻击力+170.8%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(90.7%攻击力+181.4%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(96.0%攻击力+192.1%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(101.4%攻击力+202.8%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(106.7%攻击力+213.4%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(113.4%攻击力+226.8%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(120.1%攻击力+240.1%元素精通)*3</t>
+  </si>
+  <si>
+    <t>(126.7%攻击力+253.5%元素精通)*3</t>
+  </si>
+  <si>
+    <t>琢光镜消失间隔</t>
+  </si>
+  <si>
+    <t>4.0秒</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>18.0秒</t>
+  </si>
+  <si>
+    <t>殊境·显象缚结</t>
+  </si>
+  <si>
+    <t>创造殊相缚境，造成多次草元素范围伤害。
+施放时，若持有琢光镜，将消耗所有的琢光镜，增加造成伤害的次数。
+施放完成2秒后，若施放时消耗了0/1/2/3个琢光镜，则将为艾尔海森产生3/2/1/0个琢光镜。
+&lt;i&gt;「学者如果将追求智慧作为自己的目标，那么他就必须与他所读到的每一个字为敌，这样才有可能免于偏见。」&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>单次伤害</t>
+  </si>
+  <si>
+    <t>121.6%攻击力+243.2%元素精通</t>
+  </si>
+  <si>
+    <t>130.7%攻击力+261.4%元素精通</t>
+  </si>
+  <si>
+    <t>139.8%攻击力+279.7%元素精通</t>
+  </si>
+  <si>
+    <t>152.0%攻击力+304.0%元素精通</t>
+  </si>
+  <si>
+    <t>161.1%攻击力+322.2%元素精通</t>
+  </si>
+  <si>
+    <t>170.2%攻击力+340.5%元素精通</t>
+  </si>
+  <si>
+    <t>194.6%攻击力+389.1%元素精通</t>
+  </si>
+  <si>
+    <t>206.7%攻击力+413.4%元素精通</t>
+  </si>
+  <si>
+    <t>218.9%攻击力+437.8%元素精通</t>
+  </si>
+  <si>
+    <t>231.0%攻击力+462.1%元素精通</t>
+  </si>
+  <si>
+    <t>243.2%攻击力+486.4%元素精通</t>
+  </si>
+  <si>
+    <t>258.4%攻击力+516.8%元素精通</t>
+  </si>
+  <si>
+    <t>273.6%攻击力+547.2%元素精通</t>
+  </si>
+  <si>
+    <t>288.8%攻击力+577.6%元素精通</t>
+  </si>
+  <si>
+    <t>基本攻击次数</t>
+  </si>
+  <si>
+    <t>4次</t>
+  </si>
+  <si>
+    <t>1枚攻击次数</t>
+  </si>
+  <si>
+    <t>6次</t>
+  </si>
+  <si>
+    <t>2枚攻击次数</t>
+  </si>
+  <si>
+    <t>8次</t>
+  </si>
+  <si>
+    <t>3枚攻击次数</t>
+  </si>
+  <si>
+    <t>10次</t>
+  </si>
+  <si>
+    <t>元素能量</t>
   </si>
   <si>
     <t>70</t>
@@ -2643,186 +2652,186 @@
         <v>243</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2842,7 +2851,7 @@
     </row>
     <row r="63" spans="1:16" ht="200" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2912,352 +2921,352 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>232</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/res/10000078.xlsx
+++ b/res/10000078.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="300">
-  <si>
-    <t>艾尔海森</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="296">
+  <si>
+    <t>알하이탐</t>
   </si>
   <si>
     <t>Rarity</t>
@@ -49,22 +49,22 @@
     <t>Promote Costs</t>
   </si>
   <si>
-    <t>生长碧翡碎屑 x1, 沙脂蛹 x3, 褪色红绸 x3</t>
-  </si>
-  <si>
-    <t>生长碧翡断片 x3, 苍砾蕊羽 x2, 沙脂蛹 x10, 褪色红绸 x15</t>
-  </si>
-  <si>
-    <t>生长碧翡断片 x6, 苍砾蕊羽 x4, 沙脂蛹 x20, 镶边红绸 x12</t>
-  </si>
-  <si>
-    <t>生长碧翡块 x3, 苍砾蕊羽 x8, 沙脂蛹 x30, 镶边红绸 x18</t>
-  </si>
-  <si>
-    <t>生长碧翡块 x6, 苍砾蕊羽 x12, 沙脂蛹 x45, 织金红绸 x12</t>
-  </si>
-  <si>
-    <t>生长碧翡 x6, 苍砾蕊羽 x20, 沙脂蛹 x60, 织金红绸 x24</t>
+    <t>자라나는 비취 가루 x1, 모래 번데기 x3, 빛바랜 붉은 비단 x3</t>
+  </si>
+  <si>
+    <t>자라나는 비취 조각 x3, 창색의 날개꽃 x2, 모래 번데기 x10, 빛바랜 붉은 비단 x15</t>
+  </si>
+  <si>
+    <t>자라나는 비취 조각 x6, 창색의 날개꽃 x4, 모래 번데기 x20, 장식된 붉은 비단 x12</t>
+  </si>
+  <si>
+    <t>자라나는 비취 덩이 x3, 창색의 날개꽃 x8, 모래 번데기 x30, 장식된 붉은 비단 x18</t>
+  </si>
+  <si>
+    <t>자라나는 비취 덩이 x6, 창색의 날개꽃 x12, 모래 번데기 x45, 금자수 붉은 비단 x12</t>
+  </si>
+  <si>
+    <t>자라나는 비취 x6, 창색의 날개꽃 x20, 모래 번데기 x60, 금자수 붉은 비단 x24</t>
   </si>
   <si>
     <t>Skill Upgrade Costs</t>
@@ -73,55 +73,55 @@
     <t>Lv.2</t>
   </si>
   <si>
-    <t>「巧思」的教导 x3, 褪色红绸 x6</t>
+    <t>「창의」의 가르침 x3, 빛바랜 붉은 비단 x6</t>
   </si>
   <si>
     <t>Lv.3</t>
   </si>
   <si>
-    <t>「巧思」的指引 x2, 镶边红绸 x3</t>
+    <t>「창의」의 인도 x2, 장식된 붉은 비단 x3</t>
   </si>
   <si>
     <t>Lv.4</t>
   </si>
   <si>
-    <t>「巧思」的指引 x4, 镶边红绸 x4</t>
+    <t>「창의」의 인도 x4, 장식된 붉은 비단 x4</t>
   </si>
   <si>
     <t>Lv.5</t>
   </si>
   <si>
-    <t>「巧思」的指引 x6, 镶边红绸 x6</t>
+    <t>「창의」의 인도 x6, 장식된 붉은 비단 x6</t>
   </si>
   <si>
     <t>Lv.6</t>
   </si>
   <si>
-    <t>「巧思」的指引 x9, 镶边红绸 x9</t>
+    <t>「창의」의 인도 x9, 장식된 붉은 비단 x9</t>
   </si>
   <si>
     <t>Lv.7</t>
   </si>
   <si>
-    <t>「巧思」的哲学 x4, 织金红绸 x4, 无心的渊镜 x1</t>
+    <t>「창의」의 철학 x4, 금자수 붉은 비단 x4, 무념의 거울 x1</t>
   </si>
   <si>
     <t>Lv.8</t>
   </si>
   <si>
-    <t>「巧思」的哲学 x6, 织金红绸 x6, 无心的渊镜 x1</t>
+    <t>「창의」의 철학 x6, 금자수 붉은 비단 x6, 무념의 거울 x1</t>
   </si>
   <si>
     <t>Lv.9</t>
   </si>
   <si>
-    <t>「巧思」的哲学 x12, 织金红绸 x9, 无心的渊镜 x2</t>
+    <t>「창의」의 철학 x12, 금자수 붉은 비단 x9, 무념의 거울 x2</t>
   </si>
   <si>
     <t>Lv.10</t>
   </si>
   <si>
-    <t>「巧思」的哲学 x16, 织金红绸 x12, 无心的渊镜 x2, 智识之冕 x1</t>
+    <t>「창의」의 철학 x16, 금자수 붉은 비단 x12, 무념의 거울 x2, 지식의 왕관 x1</t>
   </si>
   <si>
     <t>Constellations</t>
@@ -130,56 +130,55 @@
     <t>Real Value</t>
   </si>
   <si>
-    <t>直观</t>
-  </si>
-  <si>
-    <t>光幕攻击命中敌人时，将使共相·理式摹写的冷却时间减少1秒。该效果每1秒至多触发一次。</t>
+    <t>직관</t>
+  </si>
+  <si>
+    <t>광막 공격이 적에게 명중하면 보편성·이데아 모사의 재사용 대기 시간이 1초 감소한다. 해당 효과는 1초마다 최대 1회 발동된다</t>
   </si>
   <si>
     <t>[1.0, 1.0]</t>
   </si>
   <si>
-    <t>辩章</t>
-  </si>
-  <si>
-    <t>艾尔海森产生琢光镜时，每1枚产生的琢光镜将使元素精通提升40点，持续8秒。该效果最多叠加4层，每层独立计算持续时间。琢光镜数量达到上限时依然能触发该效果。</t>
+    <t>논증</t>
+  </si>
+  <si>
+    <t>알하이탐이 빛조각을 생성했을 때, 생성된 빛조각 1개당 원소 마스터리가 40pt 증가한다, 지속 시간: 8초. 해당 효과는 최대 4스택까지 중첩되고, 각 스택의 지속 시간은 독립적으로 계산된다. 빛조각이 최대 수량에 도달해도 해당 효과는 발동된다</t>
   </si>
   <si>
     <t>[40.0, 8.0, 4.0]</t>
   </si>
   <si>
-    <t>遮诠</t>
-  </si>
-  <si>
-    <t>共相·理式摹写的技能等级提高3级。至多提升至15级。</t>
+    <t>반례</t>
+  </si>
+  <si>
+    <t>보편성·정밀 모사의 스킬 레벨+3. 최대 Lv.15까지 상승</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>义贯</t>
-  </si>
-  <si>
-    <t>施放殊境·显象缚结时，会依据通过本次施放消耗与产生的琢光镜数量，产生如下效果：
-·每消耗1枚琢光镜，使队伍中的其他角色元素精通提升30点，持续15秒；
-·每产生1枚琢光镜，使艾尔海森获得10%草元素伤害加成，持续15秒。
-上述效果的持续期间内重复施放殊境·显象缚结时，将先移除原有的效果。</t>
+    <t>해명</t>
+  </si>
+  <si>
+    <t>특정성·현상의 족쇄 발동 시 방금 소모 또는 생성된 집광 렌즈의 수에 따라 다음 효과가 발동된다.
+·소모된 집광 렌즈 1개당 자신과 다른 파티원의 원소 마스터리가 30 증가한다. 지속 시간: 15초
+·생성된 집광 렌즈 1개당 알하이탐이 10%의 풀 원소 피해 보너스를 획득한다. 지속 시간: 15초</t>
   </si>
   <si>
     <t>[30.0, 15.0, 0.10000000149011612, 15.0]</t>
   </si>
   <si>
-    <t>智度</t>
-  </si>
-  <si>
-    <t>殊境·显象缚结的技能等级提高3级。至多提升至15级。</t>
-  </si>
-  <si>
-    <t>正理</t>
-  </si>
-  <si>
-    <t>艾尔海森产生琢光镜时，若琢光镜数量已达到上限，艾尔海森的暴击率提升10%，暴击伤害提升70%，持续6秒。
-该效果在持续期间重复触发时，剩余持续时间将增加6秒。</t>
+    <t>총명함</t>
+  </si>
+  <si>
+    <t>특정성·현상의 족쇄의 스킬 레벨+3. 최대 Lv.15까지 상승</t>
+  </si>
+  <si>
+    <t>정리</t>
+  </si>
+  <si>
+    <t>알하이탐이 집광 렌즈를 생성했을 때 렌즈의 수가 한도에 도달했을 경우, 한도를 초과한 렌즈 1개당 알하이탐의 치명타 확률이 10%, 치명타 피해가 70% 증가한다. 지속 시간: 6초
+지속 시간 동안 해당 효과가 다시 발동할 경우 지속 시간이 6초 증가한다</t>
   </si>
   <si>
     <t>[0.10000000149011612, 0.699999988079071, 6.0]</t>
@@ -188,40 +187,40 @@
     <t>Passives</t>
   </si>
   <si>
-    <t>四因订顽</t>
-  </si>
-  <si>
-    <t>艾尔海森的重击或下落攻击命中敌人时，将产生一枚琢光镜。该效果每12秒至多触发一次。</t>
+    <t>4단 인과 논증</t>
+  </si>
+  <si>
+    <t>알하이탐의 강공격 및 낙하 공격이 적에게 적중하면 집광 렌즈 1개를 생성한다. 해당 효과는 12초마다 최대 1회 발동한다</t>
   </si>
   <si>
     <t>[12.0]</t>
   </si>
   <si>
-    <t>谜林道破</t>
-  </si>
-  <si>
-    <t>艾尔海森的每点元素精通，都会使光幕伤害与殊境·显象缚结造成的伤害提升0.12%。
-通过这种方式，至多使光幕伤害与殊境·显象缚结造成的伤害提升100%。</t>
+    <t>밝혀진 비밀</t>
+  </si>
+  <si>
+    <t>알하이탐의 원소 마스터리 1pt당 광선 피해와 특정성·현상의 족쇄가 가하는 피해가 0.1% 증가한다.
+해당 방식으로 광선과 특정성·현상의 족쇄의 피해는 최대 100%까지 증가한다</t>
   </si>
   <si>
     <t>[0.0012000000569969416, 1.0]</t>
   </si>
   <si>
-    <t>超定归约律</t>
-  </si>
-  <si>
-    <t>合成武器突破素材时，有10%概率获得2倍产出。</t>
-  </si>
-  <si>
-    <t>普通攻击·溯因反绎法</t>
-  </si>
-  <si>
-    <t>普通攻击
-进行至多五段的连续剑击。
-重击
-消耗一定体力，瞬间向前方挥出两剑。
-下落攻击
-从空中下坠冲击地面，攻击下落路径上的敌人，并在落地时造成范围伤害。</t>
+    <t>라이프 특성</t>
+  </si>
+  <si>
+    <t>무기 돌파 소재를 합성 시 10%의 확률로 생산량의 2배를 획득한다</t>
+  </si>
+  <si>
+    <t>일반 공격·인명의 검</t>
+  </si>
+  <si>
+    <t>일반 공격
+검으로 최대 5번 공격한다.
+강공격
+일정 스태미나를 소모해 순간적으로 전방을 향해 검을 2번 휘두른다.
+낙하 공격
+공중에서 땅을 내려찍어 경로상의 적을 공격하고, 착지 시 범위 피해를 준다</t>
   </si>
   <si>
     <t>Modifier</t>
@@ -245,7 +244,7 @@
     <t>Lv.15</t>
   </si>
   <si>
-    <t>一段伤害</t>
+    <t>1단 공격 피해</t>
   </si>
   <si>
     <t>56.0%</t>
@@ -293,7 +292,7 @@
     <t>149.9%</t>
   </si>
   <si>
-    <t>二段伤害</t>
+    <t>2단 공격 피해</t>
   </si>
   <si>
     <t>56.8%</t>
@@ -341,7 +340,7 @@
     <t>152.0%</t>
   </si>
   <si>
-    <t>三段伤害</t>
+    <t>3단 공격 피해</t>
   </si>
   <si>
     <t>37.2%+37.2%</t>
@@ -389,7 +388,7 @@
     <t>99.6%+99.6%</t>
   </si>
   <si>
-    <t>四段伤害</t>
+    <t>4단 공격 피해</t>
   </si>
   <si>
     <t>73.5%</t>
@@ -437,7 +436,7 @@
     <t>196.6%</t>
   </si>
   <si>
-    <t>五段伤害</t>
+    <t>5단 공격 피해</t>
   </si>
   <si>
     <t>96.5%</t>
@@ -482,7 +481,7 @@
     <t>258.2%</t>
   </si>
   <si>
-    <t>重击伤害</t>
+    <t>강공격 피해</t>
   </si>
   <si>
     <t>71.2%+71.2%</t>
@@ -530,13 +529,13 @@
     <t>190.4%+190.4%</t>
   </si>
   <si>
-    <t>重击体力消耗</t>
-  </si>
-  <si>
-    <t>20.0点</t>
-  </si>
-  <si>
-    <t>下坠期间伤害</t>
+    <t>강공격 스태미나 소모</t>
+  </si>
+  <si>
+    <t>20.0pt</t>
+  </si>
+  <si>
+    <t>낙하 기간 피해</t>
   </si>
   <si>
     <t>63.9%</t>
@@ -581,7 +580,7 @@
     <t>171.0%</t>
   </si>
   <si>
-    <t>低空/高空坠地冲击伤害</t>
+    <t>저공/고공 추락 충격 피해</t>
   </si>
   <si>
     <t>128%/160%</t>
@@ -629,311 +628,303 @@
     <t>342%/427%</t>
   </si>
   <si>
-    <t>共相·理式摹写</t>
-  </si>
-  <si>
-    <t>迅速突进，在突进结束时对身边的敌人造成草元素伤害，并凝聚「琢光镜」。
-长按时将以不同的方式施放。
-长按
-进入瞄准状态，以调整突进的方向。
-琢光镜
-施放时，艾尔海森将产生1枚琢光镜；若此时未持有任何琢光镜，则额外产生1枚。琢光镜具有如下效果：
-·持有琢光镜时，艾尔海森的普通攻击、重击与下落攻击将转为无法被附魔覆盖的草元素伤害；
-·上述攻击命中敌人时，琢光镜将进行光幕攻击，造成基于琢光镜数量的草元素范围伤害；
-·至多持有3枚琢光镜；
-·琢光镜将随着时间流逝逐枚消失，并将在艾尔海森退场时全部消失。
-&lt;i&gt;「真理本就存在于不确定性当中，即便再伟大的学者也不能免于错谬。」&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>突进攻击伤害</t>
-  </si>
-  <si>
-    <t>196.0%攻击力+392.0%元素精通</t>
-  </si>
-  <si>
-    <t>210.7%攻击力+421.4%元素精通</t>
-  </si>
-  <si>
-    <t>225.4%攻击力+450.8%元素精通</t>
-  </si>
-  <si>
-    <t>245.0%攻击力+490.0%元素精通</t>
-  </si>
-  <si>
-    <t>259.7%攻击力+519.4%元素精通</t>
-  </si>
-  <si>
-    <t>274.4%攻击力+548.8%元素精通</t>
-  </si>
-  <si>
-    <t>294.0%攻击力+588.0%元素精通</t>
-  </si>
-  <si>
-    <t>313.6%攻击力+627.2%元素精通</t>
-  </si>
-  <si>
-    <t>333.2%攻击力+666.4%元素精通</t>
-  </si>
-  <si>
-    <t>352.8%攻击力+705.6%元素精通</t>
-  </si>
-  <si>
-    <t>372.4%攻击力+744.8%元素精通</t>
-  </si>
-  <si>
-    <t>392.0%攻击力+784.0%元素精通</t>
-  </si>
-  <si>
-    <t>416.5%攻击力+833.0%元素精通</t>
-  </si>
-  <si>
-    <t>441.0%攻击力+882.0%元素精通</t>
-  </si>
-  <si>
-    <t>465.5%攻击力+931.0%元素精通</t>
-  </si>
-  <si>
-    <t>光幕攻击间隔</t>
-  </si>
-  <si>
-    <t>1.6秒</t>
-  </si>
-  <si>
-    <t>1枚光幕攻击伤害</t>
-  </si>
-  <si>
-    <t>96.0%攻击力+192.0%元素精通</t>
-  </si>
-  <si>
-    <t>103.2%攻击力+206.4%元素精通</t>
-  </si>
-  <si>
-    <t>110.4%攻击力+220.8%元素精通</t>
-  </si>
-  <si>
-    <t>120.0%攻击力+240.0%元素精通</t>
-  </si>
-  <si>
-    <t>127.2%攻击力+254.4%元素精通</t>
-  </si>
-  <si>
-    <t>134.4%攻击力+268.8%元素精通</t>
-  </si>
-  <si>
-    <t>144.0%攻击力+288.0%元素精通</t>
-  </si>
-  <si>
-    <t>153.6%攻击力+307.2%元素精通</t>
-  </si>
-  <si>
-    <t>163.2%攻击力+326.4%元素精通</t>
-  </si>
-  <si>
-    <t>172.8%攻击力+345.6%元素精通</t>
-  </si>
-  <si>
-    <t>182.4%攻击力+364.8%元素精通</t>
-  </si>
-  <si>
-    <t>192.0%攻击力+384.0%元素精通</t>
-  </si>
-  <si>
-    <t>204.0%攻击力+408.0%元素精通</t>
-  </si>
-  <si>
-    <t>216.0%攻击力+432.0%元素精通</t>
-  </si>
-  <si>
-    <t>228.0%攻击力+456.0%元素精通</t>
-  </si>
-  <si>
-    <t>2枚光幕攻击伤害</t>
-  </si>
-  <si>
-    <t>(64.0%攻击力+128.0%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(68.8%攻击力+137.6%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(73.6%攻击力+147.2%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(80.0%攻击力+160.0%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(84.8%攻击力+169.6%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(89.6%攻击力+179.2%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(96.0%攻击力+192.0%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(102.4%攻击力+204.8%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(108.8%攻击力+217.6%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(115.2%攻击力+230.4%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(121.6%攻击力+243.2%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(128.0%攻击力+256.0%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(136.0%攻击力+272.0%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(144.0%攻击力+288.0%元素精通)*2</t>
-  </si>
-  <si>
-    <t>(152.0%攻击力+304.0%元素精通)*2</t>
-  </si>
-  <si>
-    <t>3枚光幕攻击伤害</t>
-  </si>
-  <si>
-    <t>(53.4%攻击力+106.7%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(57.4%攻击力+114.7%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(61.4%攻击力+122.7%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(66.7%攻击力+133.4%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(70.7%攻击力+141.4%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(74.7%攻击力+149.4%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(80.0%攻击力+160.1%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(85.4%攻击力+170.8%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(90.7%攻击力+181.4%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(96.0%攻击力+192.1%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(101.4%攻击力+202.8%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(106.7%攻击力+213.4%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(113.4%攻击力+226.8%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(120.1%攻击力+240.1%元素精通)*3</t>
-  </si>
-  <si>
-    <t>(126.7%攻击力+253.5%元素精通)*3</t>
-  </si>
-  <si>
-    <t>琢光镜消失间隔</t>
-  </si>
-  <si>
-    <t>4.0秒</t>
-  </si>
-  <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>18.0秒</t>
-  </si>
-  <si>
-    <t>殊境·显象缚结</t>
-  </si>
-  <si>
-    <t>创造殊相缚境，造成多次草元素范围伤害。
-施放时，若持有琢光镜，将消耗所有的琢光镜，增加造成伤害的次数。
-施放完成2秒后，若施放时消耗了0/1/2/3个琢光镜，则将为艾尔海森产生3/2/1/0个琢光镜。
-&lt;i&gt;「学者如果将追求智慧作为自己的目标，那么他就必须与他所读到的每一个字为敌，这样才有可能免于偏见。」&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>单次伤害</t>
-  </si>
-  <si>
-    <t>121.6%攻击力+243.2%元素精通</t>
-  </si>
-  <si>
-    <t>130.7%攻击力+261.4%元素精通</t>
-  </si>
-  <si>
-    <t>139.8%攻击力+279.7%元素精通</t>
-  </si>
-  <si>
-    <t>152.0%攻击力+304.0%元素精通</t>
-  </si>
-  <si>
-    <t>161.1%攻击力+322.2%元素精通</t>
-  </si>
-  <si>
-    <t>170.2%攻击力+340.5%元素精通</t>
-  </si>
-  <si>
-    <t>194.6%攻击力+389.1%元素精通</t>
-  </si>
-  <si>
-    <t>206.7%攻击力+413.4%元素精通</t>
-  </si>
-  <si>
-    <t>218.9%攻击力+437.8%元素精通</t>
-  </si>
-  <si>
-    <t>231.0%攻击力+462.1%元素精通</t>
-  </si>
-  <si>
-    <t>243.2%攻击力+486.4%元素精通</t>
-  </si>
-  <si>
-    <t>258.4%攻击力+516.8%元素精通</t>
-  </si>
-  <si>
-    <t>273.6%攻击力+547.2%元素精通</t>
-  </si>
-  <si>
-    <t>288.8%攻击力+577.6%元素精通</t>
-  </si>
-  <si>
-    <t>基本攻击次数</t>
-  </si>
-  <si>
-    <t>4次</t>
-  </si>
-  <si>
-    <t>1枚攻击次数</t>
-  </si>
-  <si>
-    <t>6次</t>
-  </si>
-  <si>
-    <t>2枚攻击次数</t>
-  </si>
-  <si>
-    <t>8次</t>
-  </si>
-  <si>
-    <t>3枚攻击次数</t>
-  </si>
-  <si>
-    <t>10次</t>
-  </si>
-  <si>
-    <t>元素能量</t>
+    <t>보편성·정밀 모사</t>
+  </si>
+  <si>
+    <t>빠르게 돌진한 다음 주변의 적에게 풀 원소 피해를 주고 「집광 렌즈」를 생성한다.
+홀드 시 각기 다른 방식으로 발동한다.
+홀드
+조준 상태로 돌입해서 돌진할 방향을 결정한다.
+집광 렌즈
+스킬 발동 시 알하이탐이 집광 렌즈 1개를 생성한다. 만약 집광 렌즈가 하나도 없을 경우 1개를 추가로 생성한다. 집광 렌즈의 효과는 다음과 같다.
+·집광 렌즈를 보유하고 있을 경우 알하이탐의 일반 공격과 강공격, 낙하 공격으로 가하는 피해가 다른 원소 부여 효과로 대체될 수 없는 풀 원소 피해로 전환된다.
+·위 공격이 적에게 명중하면 집광 렌즈가 적에게 광선 공격을 가해서 집광 렌즈 개수에 비례하는 풀 원소 범위 피해를 준다.
+·집광 렌즈는 최대 3개까지 보유할 수 있다.
+·집광 렌즈는 시간이 지나면 사라지며, 알하이탐이 퇴장하면 전부 사라진다.
+&lt;i&gt;「진리는 불확실성 속에 존재하기 때문에 아무리 위대한 학자일지라도 오류를 피할 수 없다」&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>돌진 공격 피해</t>
+  </si>
+  <si>
+    <t>공격력의 196.0%+원소 마스터리의 392.0%</t>
+  </si>
+  <si>
+    <t>공격력의 210.7%+원소 마스터리의 421.4%</t>
+  </si>
+  <si>
+    <t>공격력의 225.4%+원소 마스터리의 450.8%</t>
+  </si>
+  <si>
+    <t>공격력의 245.0%+원소 마스터리의 490.0%</t>
+  </si>
+  <si>
+    <t>공격력의 259.7%+원소 마스터리의 519.4%</t>
+  </si>
+  <si>
+    <t>공격력의 274.4%+원소 마스터리의 548.8%</t>
+  </si>
+  <si>
+    <t>공격력의 294.0%+원소 마스터리의 588.0%</t>
+  </si>
+  <si>
+    <t>공격력의 313.6%+원소 마스터리의 627.2%</t>
+  </si>
+  <si>
+    <t>공격력의 333.2%+원소 마스터리의 666.4%</t>
+  </si>
+  <si>
+    <t>공격력의 352.8%+원소 마스터리의 705.6%</t>
+  </si>
+  <si>
+    <t>공격력의 372.4%+원소 마스터리의 744.8%</t>
+  </si>
+  <si>
+    <t>공격력의 392.0%+원소 마스터리의 784.0%</t>
+  </si>
+  <si>
+    <t>공격력의 416.5%+원소 마스터리의 833.0%</t>
+  </si>
+  <si>
+    <t>공격력의 441.0%+원소 마스터리의 882.0%</t>
+  </si>
+  <si>
+    <t>공격력의 465.5%+원소 마스터리의 931.0%</t>
+  </si>
+  <si>
+    <t>광선 공격 간격</t>
+  </si>
+  <si>
+    <t>1.6초</t>
+  </si>
+  <si>
+    <t>렌즈 1개 광선 공격 피해</t>
+  </si>
+  <si>
+    <t>공격력의 96.0%+원소 마스터리의 192.0%</t>
+  </si>
+  <si>
+    <t>공격력의 103.2%+원소 마스터리의 206.4%</t>
+  </si>
+  <si>
+    <t>공격력의 110.4%+원소 마스터리의 220.8%</t>
+  </si>
+  <si>
+    <t>공격력의 120.0%+원소 마스터리의 240.0%</t>
+  </si>
+  <si>
+    <t>공격력의 127.2%+원소 마스터리의 254.4%</t>
+  </si>
+  <si>
+    <t>공격력의 134.4%+원소 마스터리의 268.8%</t>
+  </si>
+  <si>
+    <t>공격력의 144.0%+원소 마스터리의 288.0%</t>
+  </si>
+  <si>
+    <t>공격력의 153.6%+원소 마스터리의 307.2%</t>
+  </si>
+  <si>
+    <t>공격력의 163.2%+원소 마스터리의 326.4%</t>
+  </si>
+  <si>
+    <t>공격력의 172.8%+원소 마스터리의 345.6%</t>
+  </si>
+  <si>
+    <t>공격력의 182.4%+원소 마스터리의 364.8%</t>
+  </si>
+  <si>
+    <t>공격력의 192.0%+원소 마스터리의 384.0%</t>
+  </si>
+  <si>
+    <t>공격력의 204.0%+원소 마스터리의 408.0%</t>
+  </si>
+  <si>
+    <t>공격력의 216.0%+원소 마스터리의 432.0%</t>
+  </si>
+  <si>
+    <t>공격력의 228.0%+원소 마스터리의 456.0%</t>
+  </si>
+  <si>
+    <t>렌즈 2개 광선 공격 피해</t>
+  </si>
+  <si>
+    <t>공격력의 64.0%+원소 마스터리의 128.0%</t>
+  </si>
+  <si>
+    <t>공격력의 68.8%+원소 마스터리의 137.6%</t>
+  </si>
+  <si>
+    <t>공격력의 73.6%+원소 마스터리의 147.2%</t>
+  </si>
+  <si>
+    <t>공격력의 80.0%+원소 마스터리의 160.0%</t>
+  </si>
+  <si>
+    <t>공격력의 84.8%+원소 마스터리의 169.6%</t>
+  </si>
+  <si>
+    <t>공격력의 89.6%+원소 마스터리의 179.2%</t>
+  </si>
+  <si>
+    <t>공격력의 102.4%+원소 마스터리의 204.8%</t>
+  </si>
+  <si>
+    <t>공격력의 108.8%+원소 마스터리의 217.6%</t>
+  </si>
+  <si>
+    <t>공격력의 115.2%+원소 마스터리의 230.4%</t>
+  </si>
+  <si>
+    <t>공격력의 121.6%+원소 마스터리의 243.2%</t>
+  </si>
+  <si>
+    <t>공격력의 128.0%+원소 마스터리의 256.0%</t>
+  </si>
+  <si>
+    <t>공격력의 136.0%+원소 마스터리의 272.0%</t>
+  </si>
+  <si>
+    <t>공격력의 152.0%+원소 마스터리의 304.0%</t>
+  </si>
+  <si>
+    <t>렌즈 3개 광선 공격 피해</t>
+  </si>
+  <si>
+    <t>공격력의 53.4%+원소 마스터리의 106.7%</t>
+  </si>
+  <si>
+    <t>공격력의 57.4%+원소 마스터리의 114.7%</t>
+  </si>
+  <si>
+    <t>공격력의 61.4%+원소 마스터리의 122.7%</t>
+  </si>
+  <si>
+    <t>공격력의 66.7%+원소 마스터리의 133.4%</t>
+  </si>
+  <si>
+    <t>공격력의 70.7%+원소 마스터리의 141.4%</t>
+  </si>
+  <si>
+    <t>공격력의 74.7%+원소 마스터리의 149.4%</t>
+  </si>
+  <si>
+    <t>공격력의 80.0%+원소 마스터리의 160.1%</t>
+  </si>
+  <si>
+    <t>공격력의 85.4%+원소 마스터리의 170.8%</t>
+  </si>
+  <si>
+    <t>공격력의 90.7%+원소 마스터리의 181.4%</t>
+  </si>
+  <si>
+    <t>공격력의 96.0%+원소 마스터리의 192.1%</t>
+  </si>
+  <si>
+    <t>공격력의 101.4%+원소 마스터리의 202.8%</t>
+  </si>
+  <si>
+    <t>공격력의 106.7%+원소 마스터리의 213.4%</t>
+  </si>
+  <si>
+    <t>공격력의 113.4%+원소 마스터리의 226.8%</t>
+  </si>
+  <si>
+    <t>공격력의 120.1%+원소 마스터리의 240.1%</t>
+  </si>
+  <si>
+    <t>공격력의 126.7%+원소 마스터리의 253.5%</t>
+  </si>
+  <si>
+    <t>집광 렌즈 소멸 간격</t>
+  </si>
+  <si>
+    <t>4.0초</t>
+  </si>
+  <si>
+    <t>재사용 대기시간</t>
+  </si>
+  <si>
+    <t>18.0초</t>
+  </si>
+  <si>
+    <t>특정성·현상의 족쇄</t>
+  </si>
+  <si>
+    <t>특수 렌즈를 소환해서 여러 번에 걸쳐 풀 원소 범위 피해를 준다.
+스킬 발동 시 집광 렌즈가 존재할 경우, 집광 렌즈를 모두 소모하는 대신 공격 횟수가 증가한다.
+발동 완료 2초 후 집광 렌즈가 생성된다. 이때 생성되는 집광 렌즈의 수는 해당 스킬 발동으로 인해 소모되었던 집광 렌즈의 수에 따라 결정된다.
+·집광 렌즈를 소모하지 않았을 경우 3개가 생성된다.
+·렌즈를 1개 소모했을 경우 2개가 생성된다.
+·렌즈를 2개 소모했을 경우 1개가 생성된다.
+·렌즈를 3개 소모했을 경우 렌즈가 생성되지 않는다.
+&lt;i&gt;「무릇 지혜를 추구하는 것을 목표로 삼은 학자라면 책의 글자 하나하나를 적을 대하듯이 해야 한다. 그래야만 편견에 휘말리는 것을 피할 수 있으니까」&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>1회 피해</t>
+  </si>
+  <si>
+    <t>공격력의 130.7%+원소 마스터리의 261.4%</t>
+  </si>
+  <si>
+    <t>공격력의 139.8%+원소 마스터리의 279.7%</t>
+  </si>
+  <si>
+    <t>공격력의 161.1%+원소 마스터리의 322.2%</t>
+  </si>
+  <si>
+    <t>공격력의 170.2%+원소 마스터리의 340.5%</t>
+  </si>
+  <si>
+    <t>공격력의 194.6%+원소 마스터리의 389.1%</t>
+  </si>
+  <si>
+    <t>공격력의 206.7%+원소 마스터리의 413.4%</t>
+  </si>
+  <si>
+    <t>공격력의 218.9%+원소 마스터리의 437.8%</t>
+  </si>
+  <si>
+    <t>공격력의 231.0%+원소 마스터리의 462.1%</t>
+  </si>
+  <si>
+    <t>공격력의 243.2%+원소 마스터리의 486.4%</t>
+  </si>
+  <si>
+    <t>공격력의 258.4%+원소 마스터리의 516.8%</t>
+  </si>
+  <si>
+    <t>공격력의 273.6%+원소 마스터리의 547.2%</t>
+  </si>
+  <si>
+    <t>공격력의 288.8%+원소 마스터리의 577.6%</t>
+  </si>
+  <si>
+    <t>기본 공격 횟수</t>
+  </si>
+  <si>
+    <t>4회</t>
+  </si>
+  <si>
+    <t>렌즈 1개 공격 횟수</t>
+  </si>
+  <si>
+    <t>6회</t>
+  </si>
+  <si>
+    <t>렌즈 2개 공격 횟수</t>
+  </si>
+  <si>
+    <t>8회</t>
+  </si>
+  <si>
+    <t>렌즈 3개 공격 횟수</t>
+  </si>
+  <si>
+    <t>10회</t>
+  </si>
+  <si>
+    <t>원소 에너지</t>
   </si>
   <si>
     <t>70</t>
@@ -968,12 +959,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -982,10 +988,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1940,7 +1946,7 @@
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1990,7 +1996,7 @@
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2040,7 +2046,7 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2090,7 +2096,7 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2140,7 +2146,7 @@
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2190,7 +2196,7 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2240,7 +2246,7 @@
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2290,7 +2296,7 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2340,7 +2346,7 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2480,7 +2486,7 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2530,7 +2536,7 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2580,7 +2586,7 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2630,7 +2636,7 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2652,186 +2658,186 @@
         <v>243</v>
       </c>
       <c r="H57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P57" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="O57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" t="s">
+      <c r="C58" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="N58" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="O58" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="P58" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="O58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" t="s">
+      <c r="C59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="N60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="O60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="P60" s="2" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" t="s">
-        <v>271</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2851,7 +2857,7 @@
     </row>
     <row r="63" spans="1:16" ht="200" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2920,353 +2926,353 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="E65" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>232</v>
       </c>
       <c r="I65" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="O65" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="P65" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="M65" s="2" t="s">
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" t="s">
+      <c r="C67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="N68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="O68" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="P68" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
-      <c r="A67" t="s">
+    <row r="69" spans="1:16">
+      <c r="A69" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="N69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="O69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="P69" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
-      <c r="A68" t="s">
+    <row r="70" spans="1:16">
+      <c r="A70" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="N71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="O71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="P71" s="2" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" t="s">
-        <v>296</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" t="s">
-        <v>271</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" t="s">
-        <v>298</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/res/10000078.xlsx
+++ b/res/10000078.xlsx
@@ -133,25 +133,25 @@
     <t>직관</t>
   </si>
   <si>
-    <t>광막 공격이 적에게 명중하면 보편성·이데아 모사의 재사용 대기 시간이 1초 감소한다. 해당 효과는 1초마다 최대 1회 발동된다</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0]</t>
+    <t>투사 공격이 적에게 명중 시 보편성·이데아 모사의 재사용 대기 시간이 1초 감소한다. 해당 효과는 1초마다 최대 1회 발동된다</t>
+  </si>
+  <si>
+    <t>[1.2000000476837158, 1.0]</t>
   </si>
   <si>
     <t>논증</t>
   </si>
   <si>
-    <t>알하이탐이 빛조각을 생성했을 때, 생성된 빛조각 1개당 원소 마스터리가 40pt 증가한다, 지속 시간: 8초. 해당 효과는 최대 4스택까지 중첩되고, 각 스택의 지속 시간은 독립적으로 계산된다. 빛조각이 최대 수량에 도달해도 해당 효과는 발동된다</t>
-  </si>
-  <si>
-    <t>[40.0, 8.0, 4.0]</t>
+    <t>알하이탐이 빛조각을 생성 시, 1개당 알하이탐의 원소 마스터리가 50pt 증가한다. 지속 시간: 8초. 최대 중첩수: 4회. 스택마다 지속 시간은 독립적으로 계산된다. 빛조각 수량이 상한을 달성해도 해당 효과는 발동된다</t>
+  </si>
+  <si>
+    <t>[50.0, 8.0, 4.0]</t>
   </si>
   <si>
     <t>반례</t>
   </si>
   <si>
-    <t>보편성·정밀 모사의 스킬 레벨+3. 최대 Lv.15까지 상승</t>
+    <t>보편성·이데아 모사의 스킬 레벨+3. 최대 Lv.15까지 상승</t>
   </si>
   <si>
     <t>[]</t>
@@ -160,25 +160,26 @@
     <t>해명</t>
   </si>
   <si>
-    <t>특정성·현상의 족쇄 발동 시 방금 소모 또는 생성된 집광 렌즈의 수에 따라 다음 효과가 발동된다.
-·소모된 집광 렌즈 1개당 자신과 다른 파티원의 원소 마스터리가 30 증가한다. 지속 시간: 15초
-·생성된 집광 렌즈 1개당 알하이탐이 10%의 풀 원소 피해 보너스를 획득한다. 지속 시간: 15초</t>
+    <t>특수 영역·현상의 족쇄 발동 시, 이번에 소모 및 생성된 빛조각의 수에 따라 다음 효과가 발동한다:
+·소모된 빛조각 1개당 파티 내 주변 다른 캐릭터의 원소 마스터리가 30pt 증가한다. 지속 시간: 15초.
+·생성된 빛조각 1개당 알하이탐은 풀 원소 피해 보너스 10%를 획득한다. 지속 시간: 15초.
+해당 효과 지속시간 동안 중복으로 특수 영역·현상의 족쇄 발동 시, 기존 효과가 먼저 사라진다</t>
   </si>
   <si>
     <t>[30.0, 15.0, 0.10000000149011612, 15.0]</t>
   </si>
   <si>
-    <t>총명함</t>
-  </si>
-  <si>
-    <t>특정성·현상의 족쇄의 스킬 레벨+3. 최대 Lv.15까지 상승</t>
+    <t>현명</t>
+  </si>
+  <si>
+    <t>특수 영역·현상의 족쇄의 스킬 레벨+3. 최대 Lv.15까지 상승</t>
   </si>
   <si>
     <t>정리</t>
   </si>
   <si>
-    <t>알하이탐이 집광 렌즈를 생성했을 때 렌즈의 수가 한도에 도달했을 경우, 한도를 초과한 렌즈 1개당 알하이탐의 치명타 확률이 10%, 치명타 피해가 70% 증가한다. 지속 시간: 6초
-지속 시간 동안 해당 효과가 다시 발동할 경우 지속 시간이 6초 증가한다</t>
+    <t>알하이탐이 빛조각을 생성 시, 빛조각의 수가 이미 상한에 도달했으면, 알하이탐의 치명타 확률이 10%, 치명타 피해가 70% 증가한다. 지속 시간: 6초.
+지속 시간 동안 해당 효과가 중복 발동할 시, 남은 지속 시간이 6초 증가한다</t>
   </si>
   <si>
     <t>[0.10000000149011612, 0.699999988079071, 6.0]</t>
@@ -187,10 +188,10 @@
     <t>Passives</t>
   </si>
   <si>
-    <t>4단 인과 논증</t>
-  </si>
-  <si>
-    <t>알하이탐의 강공격 및 낙하 공격이 적에게 적중하면 집광 렌즈 1개를 생성한다. 해당 효과는 12초마다 최대 1회 발동한다</t>
+    <t>4원인 시정</t>
+  </si>
+  <si>
+    <t>알하이탐의 강공격 또는 낙하 공격이 적에게 명중 시, 빛조각 1개를 생성한다. 해당 효과는 12초마다 최대 1회 발동된다</t>
   </si>
   <si>
     <t>[12.0]</t>
@@ -199,20 +200,20 @@
     <t>밝혀진 비밀</t>
   </si>
   <si>
-    <t>알하이탐의 원소 마스터리 1pt당 광선 피해와 특정성·현상의 족쇄가 가하는 피해가 0.1% 증가한다.
-해당 방식으로 광선과 특정성·현상의 족쇄의 피해는 최대 100%까지 증가한다</t>
-  </si>
-  <si>
-    <t>[0.0012000000569969416, 1.0]</t>
-  </si>
-  <si>
-    <t>라이프 특성</t>
-  </si>
-  <si>
-    <t>무기 돌파 소재를 합성 시 10%의 확률로 생산량의 2배를 획득한다</t>
-  </si>
-  <si>
-    <t>일반 공격·인명의 검</t>
+    <t>알하이탐의 원소 마스터리 1pt당 투사 피해와 특수 영역·현상의 족쇄가 가하는 피해가 0.09% 증가한다.
+해당 방식으로 투사와 특수 영역·현상의 족쇄가 가하는 피해는 최대 90%까지 증가한다</t>
+  </si>
+  <si>
+    <t>[0.0010000000474974513, 1.0]</t>
+  </si>
+  <si>
+    <t>과잉 결정 환원법</t>
+  </si>
+  <si>
+    <t>무기 돌파 소재 합성 시 10%의 확률로 생산량의 2배를 획득한다</t>
+  </si>
+  <si>
+    <t>일반 공격·귀추법</t>
   </si>
   <si>
     <t>일반 공격
@@ -235,73 +236,73 @@
     <t>1단 공격 피해</t>
   </si>
   <si>
-    <t>56.0%</t>
-  </si>
-  <si>
-    <t>110.8%</t>
-  </si>
-  <si>
-    <t>134.2%</t>
+    <t>49.5%</t>
+  </si>
+  <si>
+    <t>97.9%</t>
+  </si>
+  <si>
+    <t>118.6%</t>
   </si>
   <si>
     <t>2단 공격 피해</t>
   </si>
   <si>
-    <t>56.8%</t>
-  </si>
-  <si>
-    <t>112.4%</t>
-  </si>
-  <si>
-    <t>136.2%</t>
+    <t>50.7%</t>
+  </si>
+  <si>
+    <t>100.3%</t>
+  </si>
+  <si>
+    <t>121.6%</t>
   </si>
   <si>
     <t>3단 공격 피해</t>
   </si>
   <si>
-    <t>37.2%+37.2%</t>
-  </si>
-  <si>
-    <t>73.6%+73.6%</t>
-  </si>
-  <si>
-    <t>89.2%+89.2%</t>
+    <t>34.2%+34.2%</t>
+  </si>
+  <si>
+    <t>67.6%+67.6%</t>
+  </si>
+  <si>
+    <t>81.9%+81.9%</t>
   </si>
   <si>
     <t>4단 공격 피해</t>
   </si>
   <si>
-    <t>73.5%</t>
-  </si>
-  <si>
-    <t>145.3%</t>
-  </si>
-  <si>
-    <t>176.1%</t>
+    <t>66.8%</t>
+  </si>
+  <si>
+    <t>132.0%</t>
+  </si>
+  <si>
+    <t>159.9%</t>
   </si>
   <si>
     <t>5단 공격 피해</t>
   </si>
   <si>
-    <t>96.5%</t>
-  </si>
-  <si>
-    <t>190.8%</t>
-  </si>
-  <si>
-    <t>231.2%</t>
+    <t>83.9%</t>
+  </si>
+  <si>
+    <t>165.8%</t>
+  </si>
+  <si>
+    <t>200.9%</t>
   </si>
   <si>
     <t>강공격 피해</t>
   </si>
   <si>
-    <t>71.2%+71.2%</t>
-  </si>
-  <si>
-    <t>140.8%+140.8%</t>
-  </si>
-  <si>
-    <t>170.6%+170.6%</t>
+    <t>55.3%+55.3%</t>
+  </si>
+  <si>
+    <t>109.2%+109.2%</t>
+  </si>
+  <si>
+    <t>132.4%+132.4%</t>
   </si>
   <si>
     <t>강공격 스태미나 소모</t>
@@ -334,77 +335,77 @@
     <t>306%/382%</t>
   </si>
   <si>
-    <t>보편성·정밀 모사</t>
-  </si>
-  <si>
-    <t>빠르게 돌진한 다음 주변의 적에게 풀 원소 피해를 주고 「집광 렌즈」를 생성한다.
-홀드 시 각기 다른 방식으로 발동한다.
+    <t>보편성·이데아 모사</t>
+  </si>
+  <si>
+    <t>빠르게 돌진한 다음 주변의 적에게 풀 원소 피해를 주고 「빛조각」을 생성한다.
+홀드 시 다른 방식으로 발동한다.
 홀드
-조준 상태로 돌입해서 돌진할 방향을 결정한다.
-집광 렌즈
-스킬 발동 시 알하이탐이 집광 렌즈 1개를 생성한다. 만약 집광 렌즈가 하나도 없을 경우 1개를 추가로 생성한다. 집광 렌즈의 효과는 다음과 같다.
-·집광 렌즈를 보유하고 있을 경우 알하이탐의 일반 공격과 강공격, 낙하 공격으로 가하는 피해가 다른 원소 부여 효과로 대체될 수 없는 풀 원소 피해로 전환된다.
-·위 공격이 적에게 명중하면 집광 렌즈가 적에게 광선 공격을 가해서 집광 렌즈 개수에 비례하는 풀 원소 범위 피해를 준다.
-·집광 렌즈는 최대 3개까지 보유할 수 있다.
-·집광 렌즈는 시간이 지나면 사라지며, 알하이탐이 퇴장하면 전부 사라진다.
+조준 상태로 돌입해 돌진할 방향을 결정한다.
+빛조각
+스킬 발동 시, 알하이탐이 빛조각 1개를 생성한다. 만약 이때 빛조각이 하나도 없다면 추가로 1개를 더 생성한다. 빛조각의 효과는 다음과 같다:
+·빛조각을 보유한 경우 알하이탐의 일반 공격과 강공격 그리고 낙하 공격으로 가하는 피해가 다른 원소 부여 효과로 대체될 수 없는 풀 원소 피해로 전환된다.
+·해당 공격이 적에게 명중하면 빛조각이 적에게 투사 공격을 가해서 빛조각 개수에 기반한 풀 원소 범위 피해를 준다.
+·빛조각은 최대 3개까지 보유할 수 있다.
+·빛조각은 시간이 지나면 차례대로 사라지며, 알하이탐이 퇴장하면 전부 사라진다.
 &lt;i&gt;「진리는 불확실성 속에 존재하기 때문에 아무리 위대한 학자일지라도 오류를 피할 수 없다」&lt;/i&gt;</t>
   </si>
   <si>
     <t>돌진 공격 피해</t>
   </si>
   <si>
-    <t>공격력의 196.0%+원소 마스터리의 392.0%</t>
-  </si>
-  <si>
-    <t>공격력의 352.8%+원소 마스터리의 705.6%</t>
-  </si>
-  <si>
-    <t>공격력의 416.5%+원소 마스터리의 833.0%</t>
-  </si>
-  <si>
-    <t>광선 공격 간격</t>
+    <t>공격력의 193.6%+원소 마스터리의 154.9%</t>
+  </si>
+  <si>
+    <t>공격력의 348.5%+원소 마스터리의 278.8%</t>
+  </si>
+  <si>
+    <t>공격력의 411.4%+원소 마스터리의 329.1%</t>
+  </si>
+  <si>
+    <t>투사 공격 간격</t>
   </si>
   <si>
     <t>1.6초</t>
   </si>
   <si>
-    <t>렌즈 1개 광선 공격 피해</t>
-  </si>
-  <si>
-    <t>공격력의 96.0%+원소 마스터리의 192.0%</t>
-  </si>
-  <si>
-    <t>공격력의 172.8%+원소 마스터리의 345.6%</t>
-  </si>
-  <si>
-    <t>공격력의 204.0%+원소 마스터리의 408.0%</t>
-  </si>
-  <si>
-    <t>렌즈 2개 광선 공격 피해</t>
-  </si>
-  <si>
-    <t>공격력의 64.0%+원소 마스터리의 128.0%</t>
-  </si>
-  <si>
-    <t>공격력의 115.2%+원소 마스터리의 230.4%</t>
-  </si>
-  <si>
-    <t>공격력의 136.0%+원소 마스터리의 272.0%</t>
-  </si>
-  <si>
-    <t>렌즈 3개 광선 공격 피해</t>
-  </si>
-  <si>
-    <t>공격력의 53.4%+원소 마스터리의 106.7%</t>
-  </si>
-  <si>
-    <t>공격력의 96.0%+원소 마스터리의 192.1%</t>
-  </si>
-  <si>
-    <t>공격력의 113.4%+원소 마스터리의 226.8%</t>
-  </si>
-  <si>
-    <t>집광 렌즈 소멸 간격</t>
+    <t>1개 빛조각 투사 공격 피해</t>
+  </si>
+  <si>
+    <t>공격력의 67.2%+원소 마스터리의 134.4%</t>
+  </si>
+  <si>
+    <t>공격력의 121.0%+원소 마스터리의 241.9%</t>
+  </si>
+  <si>
+    <t>공격력의 142.8%+원소 마스터리의 285.6%</t>
+  </si>
+  <si>
+    <t>2개 빛조각 투사 공격 피해</t>
+  </si>
+  <si>
+    <t>(공격력의 67.2%+원소 마스터리의 134.4%)*2</t>
+  </si>
+  <si>
+    <t>(공격력의 121.0%+원소 마스터리의 241.9%)*2</t>
+  </si>
+  <si>
+    <t>(공격력의 142.8%+원소 마스터리의 285.6%)*2</t>
+  </si>
+  <si>
+    <t>3개 빛조각 투사 공격 피해</t>
+  </si>
+  <si>
+    <t>(공격력의 67.2%+원소 마스터리의 134.4%)*3</t>
+  </si>
+  <si>
+    <t>(공격력의 121.0%+원소 마스터리의 241.9%)*3</t>
+  </si>
+  <si>
+    <t>(공격력의 142.8%+원소 마스터리의 285.6%)*3</t>
+  </si>
+  <si>
+    <t>빛조각 소멸 간격</t>
   </si>
   <si>
     <t>4.0초</t>
@@ -416,29 +417,25 @@
     <t>18.0초</t>
   </si>
   <si>
-    <t>특정성·현상의 족쇄</t>
-  </si>
-  <si>
-    <t>특수 렌즈를 소환해서 여러 번에 걸쳐 풀 원소 범위 피해를 준다.
-스킬 발동 시 집광 렌즈가 존재할 경우, 집광 렌즈를 모두 소모하는 대신 공격 횟수가 증가한다.
-발동 완료 2초 후 집광 렌즈가 생성된다. 이때 생성되는 집광 렌즈의 수는 해당 스킬 발동으로 인해 소모되었던 집광 렌즈의 수에 따라 결정된다.
-·집광 렌즈를 소모하지 않았을 경우 3개가 생성된다.
-·렌즈를 1개 소모했을 경우 2개가 생성된다.
-·렌즈를 2개 소모했을 경우 1개가 생성된다.
-·렌즈를 3개 소모했을 경우 렌즈가 생성되지 않는다.
-&lt;i&gt;「무릇 지혜를 추구하는 것을 목표로 삼은 학자라면 책의 글자 하나하나를 적을 대하듯이 해야 한다. 그래야만 편견에 휘말리는 것을 피할 수 있으니까」&lt;/i&gt;</t>
+    <t>특수 영역·현상의 족쇄</t>
+  </si>
+  <si>
+    <t>특수 구속 영역을 생성해서 수차례 풀 원소 범위 피해를 준다.
+발동 시 빛조각을 보유한 경우, 모든 빛조각을 소모하여 가하는 피해 횟수가 증가한다.
+발동 완료 2초 후, 빛조각을 0/1/2/3개 소모했을 경우 알하이탐은 3/2/1/0개의 빛조각을 생성한다.
+&lt;i&gt;「무릇 지혜 추구를 목표로 삼은 학자라면, 책의 모든 글자를 적으로 삼아야만 편견에 사로잡지 않을 수 있다」&lt;/i&gt;</t>
   </si>
   <si>
     <t>1회 피해</t>
   </si>
   <si>
-    <t>공격력의 121.6%+원소 마스터리의 243.2%</t>
-  </si>
-  <si>
-    <t>공격력의 218.9%+원소 마스터리의 437.8%</t>
-  </si>
-  <si>
-    <t>공격력의 258.4%+원소 마스터리의 516.8%</t>
+    <t>공격력의 121.6%+원소 마스터리의 97.3%</t>
+  </si>
+  <si>
+    <t>공격력의 218.9%+원소 마스터리의 175.1%</t>
+  </si>
+  <si>
+    <t>공격력의 258.4%+원소 마스터리의 206.7%</t>
   </si>
   <si>
     <t>기본 공격 횟수</t>
@@ -447,19 +444,19 @@
     <t>4회</t>
   </si>
   <si>
-    <t>렌즈 1개 공격 횟수</t>
+    <t>빛조각 1개 공격 횟수</t>
   </si>
   <si>
     <t>6회</t>
   </si>
   <si>
-    <t>렌즈 2개 공격 횟수</t>
+    <t>빛조각 2개 공격 횟수</t>
   </si>
   <si>
     <t>8회</t>
   </si>
   <si>
-    <t>렌즈 3개 공격 횟수</t>
+    <t>빛조각 3개 공격 횟수</t>
   </si>
   <si>
     <t>10회</t>
